--- a/data/results/results_one_sample_pre.xlsx
+++ b/data/results/results_one_sample_pre.xlsx
@@ -412,23 +412,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eicosenoic Acid</t>
+          <t>Oleic Acid</t>
         </is>
       </c>
       <c r="C2">
-        <v>1.539650116213338</v>
+        <v>13.02022814900589</v>
       </c>
       <c r="D2">
-        <v>0.0169</v>
+        <v>4.62e-06</v>
       </c>
       <c r="E2">
-        <v>0.001868811761977917</v>
+        <v>3.40738545421262e-70</v>
       </c>
       <c r="F2">
-        <v>0.169673338096292</v>
+        <v>7.237999999999999e-05</v>
       </c>
       <c r="G2">
-        <v>1.772113295386327</v>
+        <v>5.335358024443875</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="I2">
-        <v>0.07026732225036969</v>
+        <v>1.601471163479931e-68</v>
       </c>
     </row>
     <row r="3">
@@ -451,19 +451,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.537368898766762</v>
+        <v>12.27199284043238</v>
       </c>
       <c r="D3">
-        <v>0.008229999999999999</v>
+        <v>2.06e-06</v>
       </c>
       <c r="E3">
-        <v>0.0006240229184645875</v>
+        <v>1.658896300473256e-70</v>
       </c>
       <c r="F3">
-        <v>0.1376797066919419</v>
+        <v>3.520727272727273e-05</v>
       </c>
       <c r="G3">
-        <v>2.08460016478773</v>
+        <v>5.686132779630847</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="I3">
-        <v>0.05449230077317194</v>
+        <v>1.03957501496324e-68</v>
       </c>
     </row>
     <row r="4">
@@ -482,23 +482,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Palmitoleic Acid</t>
+          <t>Linoleic Acid (18:2 N?6)</t>
         </is>
       </c>
       <c r="C4">
-        <v>1.519115067101726</v>
+        <v>11.9419713238125</v>
       </c>
       <c r="D4">
-        <v>0.0213</v>
+        <v>2.28e-05</v>
       </c>
       <c r="E4">
-        <v>0.002888126883632965</v>
+        <v>3.66936622895555e-56</v>
       </c>
       <c r="F4">
-        <v>0.1913382613661394</v>
+        <v>0.00028576</v>
       </c>
       <c r="G4">
-        <v>1.671620396561262</v>
+        <v>4.642065152999546</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="I4">
-        <v>0.09049464235383292</v>
+        <v>1.149734751739406e-54</v>
       </c>
     </row>
     <row r="5">
@@ -517,23 +517,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oleic Acid</t>
+          <t>Docosahexaenoic Acid (22:6 N?3)</t>
         </is>
       </c>
       <c r="C5">
-        <v>1.33622421072545</v>
+        <v>10.91653145466798</v>
       </c>
       <c r="D5">
-        <v>0.00671</v>
+        <v>1.11e-07</v>
       </c>
       <c r="E5">
-        <v>0.001247423768367698</v>
+        <v>1.199636140315137e-76</v>
       </c>
       <c r="F5">
-        <v>0.1376797066919419</v>
+        <v>1.128e-05</v>
       </c>
       <c r="G5">
-        <v>2.173277479831008</v>
+        <v>6.954677021213342</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="I5">
-        <v>0.05862891711328181</v>
+        <v>2.255315943792458e-74</v>
       </c>
     </row>
     <row r="6">
@@ -552,23 +552,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heptadec-10-Enoic Acid</t>
+          <t>Arachidonic Acid</t>
         </is>
       </c>
       <c r="C6">
-        <v>1.334743470741456</v>
+        <v>10.80273470427753</v>
       </c>
       <c r="D6">
-        <v>0.00168</v>
+        <v>1.97e-07</v>
       </c>
       <c r="E6">
-        <v>0.0001979245564956252</v>
+        <v>3.646679458087114e-73</v>
       </c>
       <c r="F6">
-        <v>0.1376797066919419</v>
+        <v>1.234533333333333e-05</v>
       </c>
       <c r="G6">
-        <v>2.774690718274137</v>
+        <v>6.705533773838407</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="I6">
-        <v>0.03720981662117754</v>
+        <v>3.427878690601888e-71</v>
       </c>
     </row>
     <row r="7">
@@ -587,26 +587,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Docosapentaenoic Acid</t>
+          <t>Palmitoleic Acid</t>
         </is>
       </c>
       <c r="C7">
-        <v>1.284147459999948</v>
+        <v>9.606967388610272</v>
       </c>
       <c r="D7">
-        <v>0.105</v>
+        <v>0.00403</v>
       </c>
       <c r="E7">
-        <v>0.05534300346146617</v>
+        <v>9.868330195552532e-24</v>
       </c>
       <c r="F7">
-        <v>0.5169084619603015</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G7">
-        <v>0.9788107009300619</v>
+        <v>2.39469495385889</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I7">
-        <v>0.5202242325377819</v>
+        <v>1.091321221625809e-22</v>
       </c>
     </row>
     <row r="8">
@@ -617,23 +622,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Docosahexaenoic Acid (22:6 N?3)</t>
+          <t>Stearate</t>
         </is>
       </c>
       <c r="C8">
-        <v>1.164237526542623</v>
+        <v>9.336550428512018</v>
       </c>
       <c r="D8">
-        <v>0.00235</v>
+        <v>0.00421</v>
       </c>
       <c r="E8">
-        <v>0.0008695579910612545</v>
+        <v>6.591586928685164e-23</v>
       </c>
       <c r="F8">
-        <v>0.1376797066919419</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G8">
-        <v>2.628932137728264</v>
+        <v>2.375717904164332</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -641,7 +646,7 @@
         </is>
       </c>
       <c r="I8">
-        <v>0.05449230077317194</v>
+        <v>6.884546347737838e-22</v>
       </c>
     </row>
     <row r="9">
@@ -652,23 +657,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso2</t>
+          <t>3-Hydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C9">
-        <v>1.134012720641574</v>
+        <v>9.136409030291391</v>
       </c>
       <c r="D9">
-        <v>0.00809</v>
+        <v>0.00413</v>
       </c>
       <c r="E9">
-        <v>0.00424215967429244</v>
+        <v>1.653272809860433e-22</v>
       </c>
       <c r="F9">
-        <v>0.1376797066919419</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G9">
-        <v>2.092051478387728</v>
+        <v>2.384049948343599</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -676,7 +681,7 @@
         </is>
       </c>
       <c r="I9">
-        <v>0.09971778623650614</v>
+        <v>1.554076441268807e-21</v>
       </c>
     </row>
     <row r="10">
@@ -687,23 +692,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stearate</t>
+          <t>_Linolenic Acid (18:3 N?3)</t>
         </is>
       </c>
       <c r="C10">
-        <v>1.096518221647195</v>
+        <v>8.850718473963108</v>
       </c>
       <c r="D10">
-        <v>0.0197</v>
+        <v>0.00413</v>
       </c>
       <c r="E10">
-        <v>0.01348500585493696</v>
+        <v>7.933139283645883e-22</v>
       </c>
       <c r="F10">
-        <v>0.1867968472335576</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G10">
-        <v>1.705533773838407</v>
+        <v>2.384049948343599</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -711,7 +716,7 @@
         </is>
       </c>
       <c r="I10">
-        <v>0.2535181100728148</v>
+        <v>7.102048501549647e-21</v>
       </c>
     </row>
     <row r="11">
@@ -722,26 +727,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Linoleic Acid (18:2 N?6)</t>
+          <t>Docosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C11">
-        <v>1.05672947335769</v>
+        <v>8.673424782964501</v>
       </c>
       <c r="D11">
-        <v>0.0609</v>
+        <v>0.00444</v>
       </c>
       <c r="E11">
-        <v>0.05196001547153762</v>
+        <v>3.933264461973554e-21</v>
       </c>
       <c r="F11">
-        <v>0.3712231761012071</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G11">
-        <v>1.215382707367125</v>
+        <v>2.35261702988538</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I11">
-        <v>0.5192727560490841</v>
+        <v>3.215016168917514e-20</v>
       </c>
     </row>
     <row r="12">
@@ -752,23 +762,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>_Linolenic Acid (18:3 N?3)</t>
+          <t>Decanoylcarnitine</t>
         </is>
       </c>
       <c r="C12">
-        <v>1.044401245976579</v>
+        <v>8.656831345237762</v>
       </c>
       <c r="D12">
-        <v>0.00784</v>
+        <v>9.33e-07</v>
       </c>
       <c r="E12">
-        <v>0.006321513536327446</v>
+        <v>6.28466883825965e-53</v>
       </c>
       <c r="F12">
-        <v>0.1376797066919419</v>
+        <v>2.19255e-05</v>
       </c>
       <c r="G12">
-        <v>2.105683937315562</v>
+        <v>6.0301183562535</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -776,7 +786,7 @@
         </is>
       </c>
       <c r="I12">
-        <v>0.1320493938699511</v>
+        <v>1.687882487989735e-51</v>
       </c>
     </row>
     <row r="13">
@@ -787,23 +797,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adrenic Acid (22:4 N?6)</t>
+          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
         </is>
       </c>
       <c r="C13">
-        <v>1.020683730958742</v>
+        <v>8.613673320329003</v>
       </c>
       <c r="D13">
-        <v>0.00474</v>
+        <v>1.86e-06</v>
       </c>
       <c r="E13">
-        <v>0.004243310052617282</v>
+        <v>4.359699292546546e-50</v>
       </c>
       <c r="F13">
-        <v>0.1376797066919419</v>
+        <v>3.4968e-05</v>
       </c>
       <c r="G13">
-        <v>2.324221658325915</v>
+        <v>5.730487055782084</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -811,7 +821,7 @@
         </is>
       </c>
       <c r="I13">
-        <v>0.09971778623650614</v>
+        <v>9.10692741109723e-49</v>
       </c>
     </row>
     <row r="14">
@@ -822,26 +832,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lauric Acid</t>
+          <t>Myristic Acid_iso2</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.9470041734728182</v>
+        <v>8.544083786519042</v>
       </c>
       <c r="D14">
-        <v>0.0445</v>
+        <v>0.00401</v>
       </c>
       <c r="E14">
-        <v>0.05247969343049254</v>
+        <v>3.319439025043413e-21</v>
       </c>
       <c r="F14">
-        <v>0.2921208017065201</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G14">
-        <v>1.351639989019068</v>
+        <v>2.396855627379818</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I14">
-        <v>0.5192727560490841</v>
+        <v>2.836611530491644e-20</v>
       </c>
     </row>
     <row r="15">
@@ -852,26 +867,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cholate</t>
+          <t>Adrenic Acid (22:4 N?6)</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.9393730710438546</v>
+        <v>8.465736209629046</v>
       </c>
       <c r="D15">
-        <v>0.327</v>
+        <v>1.31e-06</v>
       </c>
       <c r="E15">
-        <v>0.3499284326746861</v>
+        <v>1.578958066177976e-50</v>
       </c>
       <c r="F15">
-        <v>0.6770200453033508</v>
+        <v>2.736444444444444e-05</v>
       </c>
       <c r="G15">
-        <v>0.4854522473397139</v>
+        <v>5.882728704344236</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I15">
-        <v>0.999991059874566</v>
+        <v>3.710551455518244e-49</v>
       </c>
     </row>
     <row r="16">
@@ -882,26 +902,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Biliverdin_[M+Na]+</t>
+          <t>Caffeine</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.9353343068245209</v>
+        <v>8.338596675659034</v>
       </c>
       <c r="D16">
-        <v>0.0674</v>
+        <v>0.00437</v>
       </c>
       <c r="E16">
-        <v>0.08024267836498615</v>
+        <v>2.113130673627821e-20</v>
       </c>
       <c r="F16">
-        <v>0.3834550508692929</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G16">
-        <v>1.17134010346468</v>
+        <v>2.359518563029578</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I16">
-        <v>0.685710160573518</v>
+        <v>1.655285694341793e-19</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +937,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Trans-2-Dodecenoylcarnitine</t>
+          <t>Heptadec-10-Enoic Acid</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.9347608316515079</v>
+        <v>8.02848174663785</v>
       </c>
       <c r="D17">
-        <v>0.041</v>
+        <v>1.2e-07</v>
       </c>
       <c r="E17">
-        <v>0.05049922163660663</v>
+        <v>2.731070820205442e-56</v>
       </c>
       <c r="F17">
-        <v>0.2915737590066952</v>
+        <v>1.128e-05</v>
       </c>
       <c r="G17">
-        <v>1.387216143280265</v>
+        <v>6.920818753952375</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I17">
-        <v>0.5192727560490841</v>
+        <v>1.026882628397246e-54</v>
       </c>
     </row>
     <row r="18">
@@ -942,26 +972,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Histidine</t>
+          <t>Eicosadienoic Acid</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.9326147130079889</v>
+        <v>7.970754522176192</v>
       </c>
       <c r="D18">
-        <v>0.269</v>
+        <v>0.00545</v>
       </c>
       <c r="E18">
-        <v>0.2938857891528868</v>
+        <v>9.065091333659507e-19</v>
       </c>
       <c r="F18">
-        <v>0.6619512366638485</v>
+        <v>0.02444</v>
       </c>
       <c r="G18">
-        <v>0.5702477199975919</v>
+        <v>2.263603497723357</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I18">
-        <v>0.999991059874566</v>
+        <v>6.554758348953797e-18</v>
       </c>
     </row>
     <row r="19">
@@ -972,26 +1007,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Eicosadienoic Acid</t>
+          <t>O-Octanoylcarnitine</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.9298532220975384</v>
+        <v>7.961190324189096</v>
       </c>
       <c r="D19">
-        <v>0.421</v>
+        <v>8.8e-07</v>
       </c>
       <c r="E19">
-        <v>0.4473397556759914</v>
+        <v>6.178371828196717e-49</v>
       </c>
       <c r="F19">
-        <v>0.7185515270740606</v>
+        <v>2.19255e-05</v>
       </c>
       <c r="G19">
-        <v>0.3757179041643317</v>
+        <v>6.055517327849832</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I19">
-        <v>0.999991059874566</v>
+        <v>1.161533903700983e-47</v>
       </c>
     </row>
     <row r="20">
@@ -1002,23 +1042,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
+          <t>Eicosenoic Acid</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.904298378816857</v>
+        <v>7.726057612190745</v>
       </c>
       <c r="D20">
-        <v>0.0113</v>
+        <v>0.00411</v>
       </c>
       <c r="E20">
-        <v>0.01735409588773471</v>
+        <v>3.66778984727429e-19</v>
       </c>
       <c r="F20">
-        <v>0.1376797066919419</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G20">
-        <v>1.94692155651658</v>
+        <v>2.386158178123931</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1026,7 +1066,7 @@
         </is>
       </c>
       <c r="I20">
-        <v>0.2965972751721931</v>
+        <v>2.758177965150266e-18</v>
       </c>
     </row>
     <row r="21">
@@ -1037,26 +1077,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2-Hydroxylauric Acid</t>
+          <t>Lauroylcarnitine</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.8138153951311511</v>
+        <v>7.600870160379645</v>
       </c>
       <c r="D21">
-        <v>0.04</v>
+        <v>5.97e-07</v>
       </c>
       <c r="E21">
-        <v>0.07283412371194549</v>
+        <v>4.920270914244702e-48</v>
       </c>
       <c r="F21">
-        <v>0.2915737590066952</v>
+        <v>2.19255e-05</v>
       </c>
       <c r="G21">
-        <v>1.397940008672037</v>
+        <v>6.224025668870631</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I21">
-        <v>0.6520388218021786</v>
+        <v>8.409190289800036e-47</v>
       </c>
     </row>
     <row r="22">
@@ -1067,26 +1112,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso1</t>
+          <t>Eicosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.8093310891891966</v>
+        <v>7.508729857151934</v>
       </c>
       <c r="D22">
-        <v>0.317</v>
+        <v>0.0044</v>
       </c>
       <c r="E22">
-        <v>0.3946315009079476</v>
+        <v>2.019866898944045e-18</v>
       </c>
       <c r="F22">
-        <v>0.6770200453033508</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G22">
-        <v>0.4989407377822485</v>
+        <v>2.356547323513813</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I22">
-        <v>0.999991059874566</v>
+        <v>1.406425840746224e-17</v>
       </c>
     </row>
     <row r="23">
@@ -1097,23 +1147,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Arachidonic Acid</t>
+          <t>Lauric Acid</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.800346511862954</v>
+        <v>7.402176738457011</v>
       </c>
       <c r="D23">
-        <v>0.0121</v>
+        <v>0.00465</v>
       </c>
       <c r="E23">
-        <v>0.02921217936913284</v>
+        <v>5.420938827581352e-18</v>
       </c>
       <c r="F23">
-        <v>0.1376797066919419</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G23">
-        <v>1.91721462968355</v>
+        <v>2.332547047110046</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1121,7 +1171,7 @@
         </is>
       </c>
       <c r="I23">
-        <v>0.366125981426465</v>
+        <v>3.639773212804623e-17</v>
       </c>
     </row>
     <row r="24">
@@ -1132,23 +1182,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5,8-Tetradecandienoylcarnitine</t>
+          <t>Pregnenolone Sulfate</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.7864216485564532</v>
+        <v>7.034694342851179</v>
       </c>
       <c r="D24">
-        <v>0.0105</v>
+        <v>0.0248</v>
       </c>
       <c r="E24">
-        <v>0.02778564139750813</v>
+        <v>5.075260307921562e-12</v>
       </c>
       <c r="F24">
-        <v>0.1376797066919419</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G24">
-        <v>1.978810700930062</v>
+        <v>1.605548319173784</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1156,7 +1206,7 @@
         </is>
       </c>
       <c r="I24">
-        <v>0.366125981426465</v>
+        <v>2.446535738177574e-11</v>
       </c>
     </row>
     <row r="25">
@@ -1167,23 +1217,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Decanoylcarnitine</t>
+          <t>Oleoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.7685900383840225</v>
+        <v>6.912083050173568</v>
       </c>
       <c r="D25">
-        <v>0.00745</v>
+        <v>0.00478</v>
       </c>
       <c r="E25">
-        <v>0.02315050707548311</v>
+        <v>9.120379242139015e-17</v>
       </c>
       <c r="F25">
-        <v>0.1376797066919419</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G25">
-        <v>2.127843727251707</v>
+        <v>2.320572103387881</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1191,7 +1241,7 @@
         </is>
       </c>
       <c r="I25">
-        <v>0.3347919484762172</v>
+        <v>5.912521715593568e-16</v>
       </c>
     </row>
     <row r="26">
@@ -1202,26 +1252,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Biliverdin_iso1</t>
+          <t>5,8-Tetradecandienoylcarnitine</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.7574757659708672</v>
+        <v>6.819760229321792</v>
       </c>
       <c r="D26">
-        <v>0.177</v>
+        <v>5e-07</v>
       </c>
       <c r="E26">
-        <v>0.2693754257472787</v>
+        <v>1.06779094042888e-43</v>
       </c>
       <c r="F26">
-        <v>0.6364841812463226</v>
+        <v>2.19255e-05</v>
       </c>
       <c r="G26">
-        <v>0.7520267336381934</v>
+        <v>6.301029995663981</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I26">
-        <v>0.999991059874566</v>
+        <v>1.672872473338578e-42</v>
       </c>
     </row>
     <row r="27">
@@ -1232,26 +1287,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Eicosapentaenoic Acid</t>
+          <t>Indoxyl Sulfate_iso4</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.7003956802235447</v>
+        <v>6.819426378312276</v>
       </c>
       <c r="D27">
-        <v>0.0522</v>
+        <v>0.0257</v>
       </c>
       <c r="E27">
-        <v>0.1264334415429471</v>
+        <v>1.434352841049852e-11</v>
       </c>
       <c r="F27">
-        <v>0.3299761565344063</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G27">
-        <v>1.282329496997738</v>
+        <v>1.590066876668705</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I27">
-        <v>0.9903952920864191</v>
+        <v>6.4204365266041e-11</v>
       </c>
     </row>
     <row r="28">
@@ -1262,23 +1322,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lauroylcarnitine</t>
+          <t>Aspartate</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.6964777424153209</v>
+        <v>6.798460494138438</v>
       </c>
       <c r="D28">
-        <v>0.00997</v>
+        <v>8.98e-06</v>
       </c>
       <c r="E28">
-        <v>0.04037715564667382</v>
+        <v>4.898335750500812e-35</v>
       </c>
       <c r="F28">
-        <v>0.1376797066919419</v>
+        <v>0.0001205885714285714</v>
       </c>
       <c r="G28">
-        <v>2.001304841688344</v>
+        <v>5.046723663332696</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1286,7 +1346,7 @@
         </is>
       </c>
       <c r="I28">
-        <v>0.4744315788484174</v>
+        <v>6.139247473961018e-34</v>
       </c>
     </row>
     <row r="29">
@@ -1297,23 +1357,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O-Octanoylcarnitine</t>
+          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.6690743087469955</v>
+        <v>6.759362940922999</v>
       </c>
       <c r="D29">
-        <v>0.00318</v>
+        <v>5.68e-06</v>
       </c>
       <c r="E29">
-        <v>0.02132741166059246</v>
+        <v>3.489285770827279e-36</v>
       </c>
       <c r="F29">
-        <v>0.1376797066919419</v>
+        <v>8.214153846153846e-05</v>
       </c>
       <c r="G29">
-        <v>2.497572880015567</v>
+        <v>5.245651664288981</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1321,7 +1381,7 @@
         </is>
       </c>
       <c r="I29">
-        <v>0.3341294493492818</v>
+        <v>4.685612320825203e-35</v>
       </c>
     </row>
     <row r="30">
@@ -1332,26 +1392,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso1</t>
+          <t>Pyrocatechol</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.5886109957093935</v>
+        <v>6.746883168294035</v>
       </c>
       <c r="D30">
-        <v>0.145</v>
+        <v>0.0243</v>
       </c>
       <c r="E30">
-        <v>0.320901675581973</v>
+        <v>1.281959013794957e-11</v>
       </c>
       <c r="F30">
-        <v>0.5834782880179357</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G30">
-        <v>0.8386319977650252</v>
+        <v>1.614393726401688</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I30">
-        <v>0.999991059874566</v>
+        <v>5.878251087645171e-11</v>
       </c>
     </row>
     <row r="31">
@@ -1362,26 +1427,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone (Dhea)</t>
+          <t>Cholate</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.5615925193381561</v>
+        <v>6.635538043079747</v>
       </c>
       <c r="D31">
-        <v>0.343</v>
+        <v>0.027</v>
       </c>
       <c r="E31">
-        <v>0.5483080905102581</v>
+        <v>3.901706357919832e-11</v>
       </c>
       <c r="F31">
-        <v>0.6770200453033508</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G31">
-        <v>0.4647058799572295</v>
+        <v>1.568636235841013</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I31">
-        <v>0.999991059874566</v>
+        <v>1.667092716565746e-10</v>
       </c>
     </row>
     <row r="32">
@@ -1392,26 +1462,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3-Hydroxybenzoate</t>
+          <t>Trans-2-Dodecenoylcarnitine</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.5402780228828692</v>
+        <v>6.6127403270128</v>
       </c>
       <c r="D32">
-        <v>0.142</v>
+        <v>3.66e-05</v>
       </c>
       <c r="E32">
-        <v>0.3483373332660149</v>
+        <v>4.596766692581148e-30</v>
       </c>
       <c r="F32">
-        <v>0.5834782880179357</v>
+        <v>0.00043005</v>
       </c>
       <c r="G32">
-        <v>0.8477116556169435</v>
+        <v>4.436518914605589</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I32">
-        <v>0.999991059874566</v>
+        <v>5.401200863782849e-29</v>
       </c>
     </row>
     <row r="33">
@@ -1422,26 +1497,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3-Methylglutaconate</t>
+          <t>Myristoylcarnitine</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.5210233489905464</v>
+        <v>6.529570210958527</v>
       </c>
       <c r="D33">
-        <v>0.305</v>
+        <v>8.07e-07</v>
       </c>
       <c r="E33">
-        <v>0.5386518741269084</v>
+        <v>1.638713157389927e-40</v>
       </c>
       <c r="F33">
-        <v>0.676059523575866</v>
+        <v>2.19255e-05</v>
       </c>
       <c r="G33">
-        <v>0.5157001606532142</v>
+        <v>6.09312646527793</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I33">
-        <v>0.999991059874566</v>
+        <v>2.369831335302357e-39</v>
       </c>
     </row>
     <row r="34">
@@ -1452,26 +1532,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pyrocatechol</t>
+          <t>Itaconate_iso2</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.516861453175093</v>
+        <v>6.371573774366535</v>
       </c>
       <c r="D34">
-        <v>0.167</v>
+        <v>0.0258</v>
       </c>
       <c r="E34">
-        <v>0.3965081384289933</v>
+        <v>7.577357448226192e-11</v>
       </c>
       <c r="F34">
-        <v>0.633402507370642</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G34">
-        <v>0.7772835288524167</v>
+        <v>1.58838029403677</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I34">
-        <v>0.999991059874566</v>
+        <v>3.096833044057661e-10</v>
       </c>
     </row>
     <row r="35">
@@ -1482,26 +1567,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Deoxycholate</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.4825881654151159</v>
+        <v>6.326097311773395</v>
       </c>
       <c r="D35">
-        <v>0.09379999999999999</v>
+        <v>0.0781</v>
       </c>
       <c r="E35">
-        <v>0.3191517670650423</v>
+        <v>9.881040564834709e-08</v>
       </c>
       <c r="F35">
-        <v>0.5002979011249026</v>
+        <v>0.1106955223880597</v>
       </c>
       <c r="G35">
-        <v>1.027797161620936</v>
+        <v>1.1073489661227</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I35">
-        <v>0.999991059874566</v>
+        <v>2.580049480817952e-07</v>
       </c>
     </row>
     <row r="36">
@@ -1512,26 +1602,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Caffeine</t>
+          <t>Pregnanediol-3-Glucuronide</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.4823544428793463</v>
+        <v>6.291571685208704</v>
       </c>
       <c r="D36">
-        <v>0.384</v>
+        <v>0.00451</v>
       </c>
       <c r="E36">
-        <v>0.6302318093576519</v>
+        <v>1.742142005698605e-15</v>
       </c>
       <c r="F36">
-        <v>0.6862284094298886</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G36">
-        <v>0.4156687756324692</v>
+        <v>2.34582345812204</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I36">
-        <v>0.999991059874566</v>
+        <v>1.091742323571126e-14</v>
       </c>
     </row>
     <row r="37">
@@ -1542,26 +1637,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Myristoylcarnitine</t>
+          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.4770669912579403</v>
+        <v>6.236284383964568</v>
       </c>
       <c r="D37">
-        <v>0.0119</v>
+        <v>0.024</v>
       </c>
       <c r="E37">
-        <v>0.1207555162803975</v>
+        <v>7.916562801904676e-11</v>
       </c>
       <c r="F37">
-        <v>0.1376797066919419</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G37">
-        <v>1.924453038607469</v>
+        <v>1.619788758288394</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I37">
-        <v>0.9870450895962926</v>
+        <v>3.16662512076187e-10</v>
       </c>
     </row>
     <row r="38">
@@ -1572,26 +1672,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Biliverdin_iso2</t>
+          <t>Paraxanthine</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.4716276526062467</v>
+        <v>6.183188165761937</v>
       </c>
       <c r="D38">
-        <v>0.283</v>
+        <v>0.0247</v>
       </c>
       <c r="E38">
-        <v>0.5513753207906071</v>
+        <v>1.152770416326476e-10</v>
       </c>
       <c r="F38">
-        <v>0.6619512366638485</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G38">
-        <v>0.5482135644757098</v>
+        <v>1.607303046740334</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I38">
-        <v>0.999991059874566</v>
+        <v>4.515017463945364e-10</v>
       </c>
     </row>
     <row r="39">
@@ -1602,26 +1707,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1-Methyladenosine</t>
+          <t>2-Hydroxylauric Acid</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.4658286054856992</v>
+        <v>5.904344817968788</v>
       </c>
       <c r="D39">
-        <v>0.197</v>
+        <v>0.00426</v>
       </c>
       <c r="E39">
-        <v>0.4691829115840684</v>
+        <v>1.007434573232745e-14</v>
       </c>
       <c r="F39">
-        <v>0.6619512366638485</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G39">
-        <v>0.7055337738384071</v>
+        <v>2.370590400897281</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I39">
-        <v>0.999991059874566</v>
+        <v>6.109603218314713e-14</v>
       </c>
     </row>
     <row r="40">
@@ -1632,26 +1742,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Paraxanthine</t>
+          <t>3-Hydroxybenzoate</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.4586861035871814</v>
+        <v>5.79470434994542</v>
       </c>
       <c r="D40">
-        <v>0.22</v>
+        <v>0.00424</v>
       </c>
       <c r="E40">
-        <v>0.4993193789392005</v>
+        <v>1.78355541899008e-14</v>
       </c>
       <c r="F40">
-        <v>0.6619512366638485</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G40">
-        <v>0.6575773191777937</v>
+        <v>2.372634143407268</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I40">
-        <v>0.999991059874566</v>
+        <v>1.047838808656672e-13</v>
       </c>
     </row>
     <row r="41">
@@ -1662,26 +1777,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Oleoylcarnitine_[M+Na]+</t>
+          <t>Nervonate</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.4510098716423944</v>
+        <v>5.706279515188982</v>
       </c>
       <c r="D41">
-        <v>0.0428</v>
+        <v>0.00535</v>
       </c>
       <c r="E41">
-        <v>0.2414168783307162</v>
+        <v>1.089812338637383e-13</v>
       </c>
       <c r="F41">
-        <v>0.2921208017065201</v>
+        <v>0.02444</v>
       </c>
       <c r="G41">
-        <v>1.368556230986828</v>
+        <v>2.271646217978772</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I41">
-        <v>0.999991059874566</v>
+        <v>5.85384913325223e-13</v>
       </c>
     </row>
     <row r="42">
@@ -1692,26 +1812,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3-Hydroxymyristic Acid</t>
+          <t>Palmitoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.4486287084694549</v>
+        <v>5.621067122213702</v>
       </c>
       <c r="D42">
-        <v>0.0293</v>
+        <v>0.0241</v>
       </c>
       <c r="E42">
-        <v>0.2052072973513308</v>
+        <v>8.039132629678873e-10</v>
       </c>
       <c r="F42">
-        <v>0.23813550212951</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G42">
-        <v>1.53313237964589</v>
+        <v>1.617982957425132</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I42">
-        <v>0.999991059874566</v>
+        <v>2.906455643037746e-09</v>
       </c>
     </row>
     <row r="43">
@@ -1722,26 +1847,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Heptadecanoate</t>
+          <t>Myristic Acid_iso1</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.4434073694396177</v>
+        <v>5.60325605202291</v>
       </c>
       <c r="D43">
-        <v>0.556</v>
+        <v>0.0248</v>
       </c>
       <c r="E43">
-        <v>0.7708400731198088</v>
+        <v>1.008559823386099e-09</v>
       </c>
       <c r="F43">
-        <v>0.7413796189377555</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G43">
-        <v>0.2549252084179425</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I43">
-        <v>0.999991059874566</v>
+        <v>3.577532958426163e-09</v>
       </c>
     </row>
     <row r="44">
@@ -1752,26 +1882,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Testosterone</t>
+          <t>Biliverdin_[M+Na]+</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.4084107579945169</v>
+        <v>5.582829275856704</v>
       </c>
       <c r="D44">
-        <v>0.202</v>
+        <v>0.00396</v>
       </c>
       <c r="E44">
-        <v>0.5203529562738848</v>
+        <v>3.875630405801238e-14</v>
       </c>
       <c r="F44">
-        <v>0.6619512366638485</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G44">
-        <v>0.6946486305533762</v>
+        <v>2.402304814074488</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I44">
-        <v>0.999991059874566</v>
+        <v>2.14299563614892e-13</v>
       </c>
     </row>
     <row r="45">
@@ -1782,26 +1917,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nervonate</t>
+          <t>Tauroursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.4052210714993039</v>
+        <v>5.545582998295211</v>
       </c>
       <c r="D45">
-        <v>0.382</v>
+        <v>0.0735</v>
       </c>
       <c r="E45">
-        <v>0.6770851176545334</v>
+        <v>5.163002587193026e-07</v>
       </c>
       <c r="F45">
-        <v>0.6862284094298886</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G45">
-        <v>0.4179366370882913</v>
+        <v>1.133712660915805</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I45">
-        <v>0.999991059874566</v>
+        <v>1.244416008195242e-06</v>
       </c>
     </row>
     <row r="46">
@@ -1812,26 +1952,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso1</t>
+          <t>4-Methylcatechol_iso2</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.3772737142146119</v>
+        <v>5.484313485099684</v>
       </c>
       <c r="D46">
-        <v>0.79</v>
+        <v>0.0241</v>
       </c>
       <c r="E46">
-        <v>0.9149079313078012</v>
+        <v>1.338055871001611e-09</v>
       </c>
       <c r="F46">
-        <v>0.8705553364598803</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G46">
-        <v>0.1023729087095585</v>
+        <v>1.617982957425132</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I46">
-        <v>0.999991059874566</v>
+        <v>4.658416736079683e-09</v>
       </c>
     </row>
     <row r="47">
@@ -1842,26 +1987,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Trans-Aconitate</t>
+          <t>L-Tryptophan</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.3752610016052623</v>
+        <v>5.451824723959871</v>
       </c>
       <c r="D47">
-        <v>0.214</v>
+        <v>0.0733</v>
       </c>
       <c r="E47">
-        <v>0.5606998009540862</v>
+        <v>6.497492544191558e-07</v>
       </c>
       <c r="F47">
-        <v>0.6619512366638485</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G47">
-        <v>0.6695862266508091</v>
+        <v>1.134896025358872</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I47">
-        <v>0.999991059874566</v>
+        <v>1.546238732035459e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1872,26 +2022,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Arachidonylcarnitine</t>
+          <t>Deoxycholate</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.3546909464770542</v>
+        <v>5.406941450832313</v>
       </c>
       <c r="D48">
-        <v>0.39</v>
+        <v>0.0241</v>
       </c>
       <c r="E48">
-        <v>0.7160680861077154</v>
+        <v>1.785093138894397e-09</v>
       </c>
       <c r="F48">
-        <v>0.6862284094298886</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G48">
-        <v>0.4089353929735008</v>
+        <v>1.617982957425132</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I48">
-        <v>0.999991059874566</v>
+        <v>6.101772911129939e-09</v>
       </c>
     </row>
     <row r="49">
@@ -1902,26 +2057,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ethylmalonate</t>
+          <t>Heptadecanoate</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.3320990197268471</v>
+        <v>5.390720998217663</v>
       </c>
       <c r="D49">
-        <v>0.146</v>
+        <v>0.0265</v>
       </c>
       <c r="E49">
-        <v>0.527815819471102</v>
+        <v>3.163431418350715e-09</v>
       </c>
       <c r="F49">
-        <v>0.5834782880179357</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G49">
-        <v>0.835647144215563</v>
+        <v>1.576754126063192</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I49">
-        <v>0.999991059874566</v>
+        <v>1.06200911901774e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1932,26 +2092,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Indole-3-Methyl Acetate</t>
+          <t>4-Methylcatechol_iso1</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.3296995347234184</v>
+        <v>5.339151846077242</v>
       </c>
       <c r="D50">
-        <v>0.225</v>
+        <v>0.00616</v>
       </c>
       <c r="E50">
-        <v>0.6115259312154839</v>
+        <v>1.578467988387506e-12</v>
       </c>
       <c r="F50">
-        <v>0.6619512366638485</v>
+        <v>0.02693209302325581</v>
       </c>
       <c r="G50">
-        <v>0.6478174818886375</v>
+        <v>2.210419287835574</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I50">
-        <v>0.999991059874566</v>
+        <v>8.020323832887867e-12</v>
       </c>
     </row>
     <row r="51">
@@ -1962,26 +2127,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso1</t>
+          <t>Glutamine_iso2</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.3277062688492135</v>
+        <v>5.289298168747493</v>
       </c>
       <c r="D51">
-        <v>0.642</v>
+        <v>0.00668</v>
       </c>
       <c r="E51">
-        <v>0.8648245751173389</v>
+        <v>3.123159227489358e-12</v>
       </c>
       <c r="F51">
-        <v>0.823870984554403</v>
+        <v>0.02854181818181818</v>
       </c>
       <c r="G51">
-        <v>0.1924649719311467</v>
+        <v>2.175223537524454</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I51">
-        <v>0.999991059874566</v>
+        <v>1.545141933599998e-11</v>
       </c>
     </row>
     <row r="52">
@@ -1996,22 +2166,27 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.3112076786747949</v>
+        <v>5.279618347089865</v>
       </c>
       <c r="D52">
-        <v>0.285</v>
+        <v>0.0363</v>
       </c>
       <c r="E52">
-        <v>0.6766179801638217</v>
+        <v>2.493771148066202e-08</v>
       </c>
       <c r="F52">
-        <v>0.6619512366638485</v>
+        <v>0.07499340659340659</v>
       </c>
       <c r="G52">
-        <v>0.5451551399914898</v>
+        <v>1.440093374963888</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I52">
-        <v>0.999991059874566</v>
+        <v>7.215912985638343e-08</v>
       </c>
     </row>
     <row r="53">
@@ -2022,26 +2197,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Palmitoylcarnitine_[M+Na]+</t>
+          <t>Cortisol</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.3096364663685685</v>
+        <v>5.255216487930555</v>
       </c>
       <c r="D53">
-        <v>0.257</v>
+        <v>0.0244</v>
       </c>
       <c r="E53">
-        <v>0.6565892642372408</v>
+        <v>3.352620735755911e-09</v>
       </c>
       <c r="F53">
-        <v>0.6619512366638485</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G53">
-        <v>0.5900668766687055</v>
+        <v>1.612610173661271</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I53">
-        <v>0.999991059874566</v>
+        <v>1.098273615021766e-08</v>
       </c>
     </row>
     <row r="54">
@@ -2052,26 +2232,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2,3-Dihydroxybenzoate</t>
+          <t>Isobutyrylcarnitine</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.3054102226378386</v>
+        <v>5.223241453891883</v>
       </c>
       <c r="D54">
-        <v>0.529</v>
+        <v>0.0239</v>
       </c>
       <c r="E54">
-        <v>0.8232666735969575</v>
+        <v>3.388290939960768e-09</v>
       </c>
       <c r="F54">
-        <v>0.7364659263407058</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G54">
-        <v>0.2765443279648142</v>
+        <v>1.621602099051862</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I54">
-        <v>0.999991059874566</v>
+        <v>1.098273615021766e-08</v>
       </c>
     </row>
     <row r="55">
@@ -2082,26 +2267,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Citrulline</t>
+          <t>3-Hydroxymyristic Acid</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.302215270327877</v>
+        <v>5.134692622715345</v>
       </c>
       <c r="D55">
-        <v>0.037</v>
+        <v>5.61e-05</v>
       </c>
       <c r="E55">
-        <v>0.3692229577390623</v>
+        <v>1.486726096973411e-22</v>
       </c>
       <c r="F55">
-        <v>0.287048223944507</v>
+        <v>0.0006204</v>
       </c>
       <c r="G55">
-        <v>1.431798275933005</v>
+        <v>4.251037138743839</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I55">
-        <v>0.999991059874566</v>
+        <v>1.471076348584217e-21</v>
       </c>
     </row>
     <row r="56">
@@ -2112,26 +2302,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Itaconate_iso2</t>
+          <t>1-Methyladenosine</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.2870015480007556</v>
+        <v>5.106749053565018</v>
       </c>
       <c r="D56">
-        <v>0.287</v>
+        <v>0.00442</v>
       </c>
       <c r="E56">
-        <v>0.6988939245072605</v>
+        <v>9.457196274122555e-13</v>
       </c>
       <c r="F56">
-        <v>0.6619512366638485</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G56">
-        <v>0.5421181032660077</v>
+        <v>2.354577730650908</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I56">
-        <v>0.999991059874566</v>
+        <v>4.938758054264e-12</v>
       </c>
     </row>
     <row r="57">
@@ -2142,26 +2337,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kynurenic Acid</t>
+          <t>Tauroursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.2816808048428953</v>
+        <v>5.078900156650731</v>
       </c>
       <c r="D57">
-        <v>0.216</v>
+        <v>0.0254</v>
       </c>
       <c r="E57">
-        <v>0.6494240937084502</v>
+        <v>7.912426949190913e-09</v>
       </c>
       <c r="F57">
-        <v>0.6619512366638485</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G57">
-        <v>0.6655462488490691</v>
+        <v>1.595166283380062</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I57">
-        <v>0.999991059874566</v>
+        <v>2.521247909233714e-08</v>
       </c>
     </row>
     <row r="58">
@@ -2172,26 +2372,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aspartate</t>
+          <t>Ascorbate</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.2815513271843756</v>
+        <v>5.042667339981089</v>
       </c>
       <c r="D58">
-        <v>0.00662</v>
+        <v>0.0272</v>
       </c>
       <c r="E58">
-        <v>0.2434779714811935</v>
+        <v>1.276590885553179e-08</v>
       </c>
       <c r="F58">
-        <v>0.1376797066919419</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G58">
-        <v>2.1791420105603</v>
+        <v>1.565431095965801</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I58">
-        <v>0.999991059874566</v>
+        <v>3.870953007806413e-08</v>
       </c>
     </row>
     <row r="59">
@@ -2202,26 +2407,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
+          <t>Ketoleucine</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.2767242729402759</v>
+        <v>5.040746535341303</v>
       </c>
       <c r="D59">
-        <v>0.655</v>
+        <v>0.073</v>
       </c>
       <c r="E59">
-        <v>0.8895072810450563</v>
+        <v>1.86336805303818e-06</v>
       </c>
       <c r="F59">
-        <v>0.8270320251882877</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G59">
-        <v>0.1837587000082169</v>
+        <v>1.136677139879544</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I59">
-        <v>0.999991059874566</v>
+        <v>3.892368821901976e-06</v>
       </c>
     </row>
     <row r="60">
@@ -2232,26 +2442,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso1</t>
+          <t>Isovalerylcarnitine</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.2634111603384944</v>
+        <v>4.986330961914768</v>
       </c>
       <c r="D60">
-        <v>0.179</v>
+        <v>0.0253</v>
       </c>
       <c r="E60">
-        <v>0.635613554434323</v>
+        <v>1.090009824354507e-08</v>
       </c>
       <c r="F60">
-        <v>0.6364841812463226</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G60">
-        <v>0.7471469690201068</v>
+        <v>1.596879478824182</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I60">
-        <v>0.999991059874566</v>
+        <v>3.359374540633562e-08</v>
       </c>
     </row>
     <row r="61">
@@ -2262,26 +2477,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5-Hydroxytryptophan</t>
+          <t>Oxoglutarate</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.2596056153412689</v>
+        <v>4.806778962254778</v>
       </c>
       <c r="D61">
-        <v>0.13</v>
+        <v>0.025</v>
       </c>
       <c r="E61">
-        <v>0.5888093784491535</v>
+        <v>1.991827560942805e-08</v>
       </c>
       <c r="F61">
-        <v>0.5689244078179418</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G61">
-        <v>0.8860566476931632</v>
+        <v>1.602059991327962</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I61">
-        <v>0.999991059874566</v>
+        <v>5.943866372337258e-08</v>
       </c>
     </row>
     <row r="62">
@@ -2292,26 +2512,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Glutarate</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.2529786245395484</v>
+        <v>4.803346036220232</v>
       </c>
       <c r="D62">
-        <v>0.227</v>
+        <v>0.0732</v>
       </c>
       <c r="E62">
-        <v>0.6872081590349667</v>
+        <v>3.514421135062711e-06</v>
       </c>
       <c r="F62">
-        <v>0.6619512366638485</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G62">
-        <v>0.6439741428068773</v>
+        <v>1.135488918941608</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I62">
-        <v>0.999991059874566</v>
+        <v>7.181643189041192e-06</v>
       </c>
     </row>
     <row r="63">
@@ -2322,26 +2547,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Saccharate_[M-H2O-H]-</t>
+          <t>Taurohyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.2479344661386966</v>
+        <v>4.785160019571353</v>
       </c>
       <c r="D63">
-        <v>0.284</v>
+        <v>0.073</v>
       </c>
       <c r="E63">
-        <v>0.7319118429942382</v>
+        <v>3.637625579122258e-06</v>
       </c>
       <c r="F63">
-        <v>0.6619512366638485</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G63">
-        <v>0.5466816599529624</v>
+        <v>1.136677139879544</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I63">
-        <v>0.999991059874566</v>
+        <v>7.353479665322415e-06</v>
       </c>
     </row>
     <row r="64">
@@ -2352,26 +2582,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pregnanediol-3-Glucuronide</t>
+          <t>3,4-Dihydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.2478693979847202</v>
+        <v>4.708210571810053</v>
       </c>
       <c r="D64">
-        <v>0.296</v>
+        <v>0.00424</v>
       </c>
       <c r="E64">
-        <v>0.7395190990647875</v>
+        <v>6.747437072707555e-12</v>
       </c>
       <c r="F64">
-        <v>0.6647432554504373</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G64">
-        <v>0.5287082889410615</v>
+        <v>2.372634143407268</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I64">
-        <v>0.999991059874566</v>
+        <v>3.171295424172551e-11</v>
       </c>
     </row>
     <row r="65">
@@ -2382,26 +2617,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Citrate_iso2</t>
+          <t>Kynurenine</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.2476400378323595</v>
+        <v>4.669804609926588</v>
       </c>
       <c r="D65">
-        <v>0.486</v>
+        <v>0.0246</v>
       </c>
       <c r="E65">
-        <v>0.8363702836251915</v>
+        <v>3.06183191410487e-08</v>
       </c>
       <c r="F65">
-        <v>0.7364659263407058</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G65">
-        <v>0.3133637307377066</v>
+        <v>1.609064892896621</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I65">
-        <v>0.999991059874566</v>
+        <v>8.721581815935086e-08</v>
       </c>
     </row>
     <row r="66">
@@ -2412,26 +2652,31 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso1</t>
+          <t>Succinate_iso2</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.2460514171031733</v>
+        <v>4.659067389930594</v>
       </c>
       <c r="D66">
-        <v>0.334</v>
+        <v>0.0281</v>
       </c>
       <c r="E66">
-        <v>0.7635142434057165</v>
+        <v>5.921315514356421e-08</v>
       </c>
       <c r="F66">
-        <v>0.6770200453033508</v>
+        <v>0.06067272727272727</v>
       </c>
       <c r="G66">
-        <v>0.4762535331884355</v>
+        <v>1.55129368009492</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I66">
-        <v>0.999991059874566</v>
+        <v>1.590296166712867e-07</v>
       </c>
     </row>
     <row r="67">
@@ -2442,26 +2687,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3,4-Dihydroxyphenylacetate</t>
+          <t>Hexanoylcarnitine</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.245768818068687</v>
+        <v>4.656834458279545</v>
       </c>
       <c r="D67">
-        <v>0.242</v>
+        <v>0.0233</v>
       </c>
       <c r="E67">
-        <v>0.7056039946080322</v>
+        <v>2.494863532268576e-08</v>
       </c>
       <c r="F67">
-        <v>0.6619512366638485</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G67">
-        <v>0.6161846340195687</v>
+        <v>1.632644078973981</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I67">
-        <v>0.999991059874566</v>
+        <v>7.215912985638343e-08</v>
       </c>
     </row>
     <row r="68">
@@ -2472,26 +2722,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
+          <t>Kynurenic Acid</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.2433624204926414</v>
+        <v>4.60796224642474</v>
       </c>
       <c r="D68">
-        <v>0.0248</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="E68">
-        <v>0.4066959755054855</v>
+        <v>3.287386784119464e-10</v>
       </c>
       <c r="F68">
-        <v>0.2116398797082744</v>
+        <v>0.03576086956521739</v>
       </c>
       <c r="G68">
-        <v>1.605548319173784</v>
+        <v>2.057991946977687</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I68">
-        <v>0.999991059874566</v>
+        <v>1.236057430828918e-09</v>
       </c>
     </row>
     <row r="69">
@@ -2502,26 +2757,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kynurenic Acid_[M+H-H2O]+</t>
+          <t>Arachidonylcarnitine</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.2413170290717488</v>
+        <v>4.576886212006466</v>
       </c>
       <c r="D69">
-        <v>0.103</v>
+        <v>0.00477</v>
       </c>
       <c r="E69">
-        <v>0.5778043563185085</v>
+        <v>2.370515381189557e-11</v>
       </c>
       <c r="F69">
-        <v>0.5169084619603015</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G69">
-        <v>0.9871627752948278</v>
+        <v>2.321481620959886</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I69">
-        <v>0.999991059874566</v>
+        <v>1.036411375961946e-10</v>
       </c>
     </row>
     <row r="70">
@@ -2532,26 +2792,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Caffeate_iso2</t>
+          <t>2,3-Dihydroxybenzoate</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.240433559690635</v>
+        <v>4.546843079155956</v>
       </c>
       <c r="D70">
-        <v>0.203</v>
+        <v>0.0239</v>
       </c>
       <c r="E70">
-        <v>0.6815517029764026</v>
+        <v>4.234768937111932e-08</v>
       </c>
       <c r="F70">
-        <v>0.6619512366638485</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G70">
-        <v>0.6925039620867871</v>
+        <v>1.621602099051862</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I70">
-        <v>0.999991059874566</v>
+        <v>1.170789059083887e-07</v>
       </c>
     </row>
     <row r="71">
@@ -2562,26 +2827,31 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4-Coumarate</t>
+          <t>Tigloylcarnitine</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.2205114639620839</v>
+        <v>4.532806915392963</v>
       </c>
       <c r="D71">
-        <v>0.88</v>
+        <v>0.00546</v>
       </c>
       <c r="E71">
-        <v>0.972204871196901</v>
+        <v>5.535172534708302e-11</v>
       </c>
       <c r="F71">
-        <v>0.8750912423141869</v>
+        <v>0.02444</v>
       </c>
       <c r="G71">
-        <v>0.05551732784983137</v>
+        <v>2.262807357295263</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I71">
-        <v>0.999991059874566</v>
+        <v>2.312472081167024e-10</v>
       </c>
     </row>
     <row r="72">
@@ -2592,26 +2862,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hexanoylcarnitine</t>
+          <t>Glycochenodeoxycholate</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.2183559084632286</v>
+        <v>4.502151378391407</v>
       </c>
       <c r="D72">
-        <v>0.286</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="E72">
-        <v>0.7608417070421987</v>
+        <v>7.351406095709664e-06</v>
       </c>
       <c r="F72">
-        <v>0.6619512366638485</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G72">
-        <v>0.543633966870957</v>
+        <v>1.140261433802853</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I72">
-        <v>0.999991059874566</v>
+        <v>1.439650360409809e-05</v>
       </c>
     </row>
     <row r="73">
@@ -2626,22 +2901,27 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.2169003732554987</v>
+        <v>4.496464884683977</v>
       </c>
       <c r="D73">
-        <v>0.546</v>
+        <v>0.0229</v>
       </c>
       <c r="E73">
-        <v>0.8769947350053663</v>
+        <v>4.217526705516459e-08</v>
       </c>
       <c r="F73">
-        <v>0.7364659263407058</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G73">
-        <v>0.2628073572952627</v>
+        <v>1.640164517660112</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I73">
-        <v>0.999991059874566</v>
+        <v>1.170789059083887e-07</v>
       </c>
     </row>
     <row r="74">
@@ -2652,26 +2932,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Glutamine_iso2</t>
+          <t>Biliverdin_iso2</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.2080286822515931</v>
+        <v>4.443335999180047</v>
       </c>
       <c r="D74">
-        <v>0.328</v>
+        <v>0.0234</v>
       </c>
       <c r="E74">
-        <v>0.7930268169869729</v>
+        <v>5.673853425556269e-08</v>
       </c>
       <c r="F74">
-        <v>0.6770200453033508</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G74">
-        <v>0.4841261562883209</v>
+        <v>1.630784142589857</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I74">
-        <v>0.999991059874566</v>
+        <v>1.545919484064607e-07</v>
       </c>
     </row>
     <row r="75">
@@ -2682,26 +2967,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Indole-3-Acetate_[M+Na]+</t>
+          <t>Dehydroepiandrosterone (Dhea)</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.1948097449194288</v>
+        <v>4.361963711462853</v>
       </c>
       <c r="D75">
-        <v>0.283</v>
+        <v>0.0265</v>
       </c>
       <c r="E75">
-        <v>0.7819926215977856</v>
+        <v>1.325121560357161e-07</v>
       </c>
       <c r="F75">
-        <v>0.6619512366638485</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G75">
-        <v>0.5482135644757098</v>
+        <v>1.576754126063192</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I75">
-        <v>0.999991059874566</v>
+        <v>3.366525045231708e-07</v>
       </c>
     </row>
     <row r="76">
@@ -2712,26 +3002,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pregnenolone Sulfate</t>
+          <t>Biliverdin_iso1</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.1802727247789698</v>
+        <v>4.312864950018162</v>
       </c>
       <c r="D76">
-        <v>0.339</v>
+        <v>0.0232</v>
       </c>
       <c r="E76">
-        <v>0.8228256461499932</v>
+        <v>8.924223116732285e-08</v>
       </c>
       <c r="F76">
-        <v>0.6770200453033508</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G76">
-        <v>0.4698003017969178</v>
+        <v>1.6345120151091</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I76">
-        <v>0.999991059874566</v>
+        <v>2.363033726684041e-07</v>
       </c>
     </row>
     <row r="77">
@@ -2742,26 +3037,31 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Glutamine_iso1</t>
+          <t>Chenodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.1775380872447839</v>
+        <v>4.307304882322978</v>
       </c>
       <c r="D77">
-        <v>0.357</v>
+        <v>0.0779</v>
       </c>
       <c r="E77">
-        <v>0.8328783454501043</v>
+        <v>1.68079164105197e-05</v>
       </c>
       <c r="F77">
-        <v>0.6770200453033508</v>
+        <v>0.1106955223880597</v>
       </c>
       <c r="G77">
-        <v>0.4473317838878068</v>
+        <v>1.108462542327435</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I77">
-        <v>0.999991059874566</v>
+        <v>3.224375801201739e-05</v>
       </c>
     </row>
     <row r="78">
@@ -2772,26 +3072,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tigloylcarnitine</t>
+          <t>Indole-3-Carboxaldehyde_iso2</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.1774063560305358</v>
+        <v>4.207107559881542</v>
       </c>
       <c r="D78">
-        <v>0.437</v>
+        <v>0.0411</v>
       </c>
       <c r="E78">
-        <v>0.8634140705272924</v>
+        <v>1.473273745687288e-06</v>
       </c>
       <c r="F78">
-        <v>0.731235194754237</v>
+        <v>0.08308387096774193</v>
       </c>
       <c r="G78">
-        <v>0.3595185630295782</v>
+        <v>1.386158178123931</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I78">
-        <v>0.999991059874566</v>
+        <v>3.14744845669557e-06</v>
       </c>
     </row>
     <row r="79">
@@ -2802,26 +3107,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso2</t>
+          <t>Glutarate</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.1713768946786343</v>
+        <v>4.196481923513174</v>
       </c>
       <c r="D79">
-        <v>0.507</v>
+        <v>0.0124</v>
       </c>
       <c r="E79">
-        <v>0.8901130742163909</v>
+        <v>9.978805690283901e-09</v>
       </c>
       <c r="F79">
-        <v>0.7364659263407058</v>
+        <v>0.0496</v>
       </c>
       <c r="G79">
-        <v>0.294992040666664</v>
+        <v>1.906578314837765</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I79">
-        <v>0.999991059874566</v>
+        <v>3.126692449622289e-08</v>
       </c>
     </row>
     <row r="80">
@@ -2832,26 +3142,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3-Hydroxyphenylacetate</t>
+          <t>L-Carnitine</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.1688986660370944</v>
+        <v>4.177523612993472</v>
       </c>
       <c r="D80">
-        <v>0.0145</v>
+        <v>0.0243</v>
       </c>
       <c r="E80">
-        <v>0.4891674022223688</v>
+        <v>1.802320768893542e-07</v>
       </c>
       <c r="F80">
-        <v>0.1546763233755029</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G80">
-        <v>1.838631997765025</v>
+        <v>1.614393726401688</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I80">
-        <v>0.999991059874566</v>
+        <v>4.51781739402648e-07</v>
       </c>
     </row>
     <row r="81">
@@ -2866,22 +3181,27 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.1676118712048343</v>
+        <v>4.173794164157743</v>
       </c>
       <c r="D81">
-        <v>0.147</v>
+        <v>0.0387</v>
       </c>
       <c r="E81">
-        <v>0.7251577626506008</v>
+        <v>1.274665606557017e-06</v>
       </c>
       <c r="F81">
-        <v>0.5834782880179357</v>
+        <v>0.07908260869565217</v>
       </c>
       <c r="G81">
-        <v>0.8326826652518239</v>
+        <v>1.412289034981089</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I81">
-        <v>0.999991059874566</v>
+        <v>2.819260400384932e-06</v>
       </c>
     </row>
     <row r="82">
@@ -2892,26 +3212,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2-Oxindole</t>
+          <t>Trans-Aconitate</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.1620323541200301</v>
+        <v>4.164759764204906</v>
       </c>
       <c r="D82">
-        <v>0.427</v>
+        <v>0.0702</v>
       </c>
       <c r="E82">
-        <v>0.8711989805962718</v>
+        <v>1.567729834249203e-05</v>
       </c>
       <c r="F82">
-        <v>0.7215764023908747</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G82">
-        <v>0.3695721249749762</v>
+        <v>1.153662887870195</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I82">
-        <v>0.999991059874566</v>
+        <v>3.038486689060311e-05</v>
       </c>
     </row>
     <row r="83">
@@ -2922,26 +3247,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Isobutyrylcarnitine</t>
+          <t>Theobromine</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.1592928583286785</v>
+        <v>4.163953329715981</v>
       </c>
       <c r="D83">
-        <v>0.537</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="E83">
-        <v>0.9057051394093181</v>
+        <v>1.838444419863566e-05</v>
       </c>
       <c r="F83">
-        <v>0.7364659263407058</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G83">
-        <v>0.2700257143004444</v>
+        <v>1.137272471682025</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I83">
-        <v>0.999991059874566</v>
+        <v>3.491187383175256e-05</v>
       </c>
     </row>
     <row r="84">
@@ -2952,26 +3282,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Methyl 4-Aminobutyrate</t>
+          <t>Testosterone</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.1590532347862922</v>
+        <v>4.061255565134532</v>
       </c>
       <c r="D84">
-        <v>0.503</v>
+        <v>0.00475</v>
       </c>
       <c r="E84">
-        <v>0.896465173925814</v>
+        <v>3.668250560535576e-10</v>
       </c>
       <c r="F84">
-        <v>0.7364659263407058</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G84">
-        <v>0.2984320149440726</v>
+        <v>2.323306390375134</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I84">
-        <v>0.999991059874566</v>
+        <v>1.352217853687624e-09</v>
       </c>
     </row>
     <row r="85">
@@ -2982,26 +3317,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Oxoglutarate</t>
+          <t>Indoxyl Sulfate_iso3</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.1551015400036445</v>
+        <v>4.037859836794368</v>
       </c>
       <c r="D85">
-        <v>0.479</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="E85">
-        <v>0.8921123382064025</v>
+        <v>2.487620648404153e-05</v>
       </c>
       <c r="F85">
-        <v>0.7364659263407058</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G85">
-        <v>0.3196644865854368</v>
+        <v>1.140261433802853</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I85">
-        <v>0.999991059874566</v>
+        <v>4.630422593069117e-05</v>
       </c>
     </row>
     <row r="86">
@@ -3012,26 +3352,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Idp (Inosine 5'-Diphosphate)</t>
+          <t>5-Hydroxytryptophan</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.1504369509744506</v>
+        <v>4.036378824858741</v>
       </c>
       <c r="D86">
-        <v>0.397</v>
+        <v>0.00413</v>
       </c>
       <c r="E86">
-        <v>0.8702484674343817</v>
+        <v>2.382710458583075e-10</v>
       </c>
       <c r="F86">
-        <v>0.691417316031805</v>
+        <v>0.02304205128205129</v>
       </c>
       <c r="G86">
-        <v>0.4012094932368849</v>
+        <v>2.384049948343599</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I86">
-        <v>0.999991059874566</v>
+        <v>9.141827881910574e-10</v>
       </c>
     </row>
     <row r="87">
@@ -3042,26 +3387,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Succinate_iso2</t>
+          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.1500857779374381</v>
+        <v>4.025710940941312</v>
       </c>
       <c r="D87">
-        <v>0.821</v>
+        <v>0.0257</v>
       </c>
       <c r="E87">
-        <v>0.9708320966653945</v>
+        <v>3.970547334302759e-07</v>
       </c>
       <c r="F87">
-        <v>0.8705553364598803</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G87">
-        <v>0.08565684288055925</v>
+        <v>1.590066876668705</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I87">
-        <v>0.999991059874566</v>
+        <v>9.82188024801209e-07</v>
       </c>
     </row>
     <row r="88">
@@ -3072,26 +3422,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2-Methylbutyrylcarnitine</t>
+          <t>Glycodeoxycholic acid</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.1267042804710704</v>
+        <v>4.002751876411322</v>
       </c>
       <c r="D88">
-        <v>0.327</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E88">
-        <v>0.8679428349145014</v>
+        <v>2.580110856999161e-05</v>
       </c>
       <c r="F88">
-        <v>0.6770200453033508</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G88">
-        <v>0.4854522473397139</v>
+        <v>1.146301788223826</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I88">
-        <v>0.999991059874566</v>
+        <v>4.755498442312179e-05</v>
       </c>
     </row>
     <row r="89">
@@ -3102,26 +3457,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Kynurenine</t>
+          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.1254149751792468</v>
+        <v>3.9946727239892</v>
       </c>
       <c r="D89">
-        <v>0.356</v>
+        <v>0.0775</v>
       </c>
       <c r="E89">
-        <v>0.8785067699989791</v>
+        <v>3.656990283390097e-05</v>
       </c>
       <c r="F89">
-        <v>0.6770200453033508</v>
+        <v>0.1106955223880597</v>
       </c>
       <c r="G89">
-        <v>0.4485500020271249</v>
+        <v>1.11069829749369</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I89">
-        <v>0.999991059874566</v>
+        <v>6.547754031212745e-05</v>
       </c>
     </row>
     <row r="90">
@@ -3132,26 +3492,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
+          <t>Hyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.1156305117124884</v>
+        <v>3.972890195464369</v>
       </c>
       <c r="D90">
-        <v>0.851</v>
+        <v>0.0731</v>
       </c>
       <c r="E90">
-        <v>0.9815167584925025</v>
+        <v>3.06526824198298e-05</v>
       </c>
       <c r="F90">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G90">
-        <v>0.07007043991541213</v>
+        <v>1.136082623042139</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I90">
-        <v>0.999991059874566</v>
+        <v>5.594858538765051e-05</v>
       </c>
     </row>
     <row r="91">
@@ -3162,26 +3527,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
+          <t>Citrate_iso2</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.1152127914021806</v>
+        <v>3.950778511562438</v>
       </c>
       <c r="D91">
-        <v>0.474</v>
+        <v>0.169</v>
       </c>
       <c r="E91">
-        <v>0.9175833357024493</v>
+        <v>0.0008903307723801198</v>
       </c>
       <c r="F91">
-        <v>0.7364659263407058</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G91">
-        <v>0.324221658325915</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I91">
-        <v>0.999991059874566</v>
+        <v>0.001277726604637118</v>
       </c>
     </row>
     <row r="92">
@@ -3192,26 +3562,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
+          <t>3-Methylglutaconate</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.107326535674037</v>
+        <v>3.889933320077577</v>
       </c>
       <c r="D92">
-        <v>0.292</v>
+        <v>0.0275</v>
       </c>
       <c r="E92">
-        <v>0.8762366081352594</v>
+        <v>8.493921523644913e-07</v>
       </c>
       <c r="F92">
-        <v>0.6645037083313561</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G92">
-        <v>0.5346171485515817</v>
+        <v>1.560667306169737</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I92">
-        <v>0.999991059874566</v>
+        <v>1.996071558056554e-06</v>
       </c>
     </row>
     <row r="93">
@@ -3226,22 +3601,27 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.09774101433925586</v>
+        <v>3.868288182627361</v>
       </c>
       <c r="D93">
-        <v>0.792</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="E93">
-        <v>0.9774651821220439</v>
+        <v>3.503189033338686e-05</v>
       </c>
       <c r="F93">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G93">
-        <v>0.1012748184105065</v>
+        <v>1.151810883008601</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I93">
-        <v>0.999991059874566</v>
+        <v>6.332687867958394e-05</v>
       </c>
     </row>
     <row r="94">
@@ -3252,26 +3632,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>_13-Hydroxyoctadecadienoic Acid</t>
+          <t>Glutamate Acid</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.09630403676456359</v>
+        <v>3.833806945275005</v>
       </c>
       <c r="D94">
-        <v>0.805</v>
+        <v>0.0704</v>
       </c>
       <c r="E94">
-        <v>0.9793270785854988</v>
+        <v>3.817825344641194e-05</v>
       </c>
       <c r="F94">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G94">
-        <v>0.09420411963213146</v>
+        <v>1.152427340857888</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I94">
-        <v>0.999991059874566</v>
+        <v>6.77123740370325e-05</v>
       </c>
     </row>
     <row r="95">
@@ -3282,26 +3667,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Homovanillate_iso1</t>
+          <t>Thyroxine</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.09439579944729352</v>
+        <v>3.811482465126839</v>
       </c>
       <c r="D95">
-        <v>0.504</v>
+        <v>0.0272</v>
       </c>
       <c r="E95">
-        <v>0.9373692284697438</v>
+        <v>1.079908171342281e-06</v>
       </c>
       <c r="F95">
-        <v>0.7364659263407058</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G95">
-        <v>0.2975694635544747</v>
+        <v>1.565431095965801</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I95">
-        <v>0.999991059874566</v>
+        <v>2.475887026979865e-06</v>
       </c>
     </row>
     <row r="96">
@@ -3312,26 +3702,31 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Methionine_iso1</t>
+          <t>Indole-3-Carboxaldehyde_iso1</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.08984555572217055</v>
+        <v>3.801554635213216</v>
       </c>
       <c r="D96">
-        <v>0.835</v>
+        <v>0.0276</v>
       </c>
       <c r="E96">
-        <v>0.9839292647497133</v>
+        <v>1.183125171350533e-06</v>
       </c>
       <c r="F96">
-        <v>0.8705553364598803</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G96">
-        <v>0.07831352451639793</v>
+        <v>1.559090917934782</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I96">
-        <v>0.999991059874566</v>
+        <v>2.679849785709642e-06</v>
       </c>
     </row>
     <row r="97">
@@ -3342,26 +3737,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Benzoate</t>
+          <t>3-Indoleacrylic Acid_iso2</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.08186996384492254</v>
+        <v>3.79253516277745</v>
       </c>
       <c r="D97">
-        <v>0.6929999999999999</v>
+        <v>0.0693</v>
       </c>
       <c r="E97">
-        <v>0.9704224513901447</v>
+        <v>4.012730835153729e-05</v>
       </c>
       <c r="F97">
-        <v>0.8448527456096436</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G97">
-        <v>0.1592667653881933</v>
+        <v>1.159266765388193</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I97">
-        <v>0.999991059874566</v>
+        <v>7.05040557952244e-05</v>
       </c>
     </row>
     <row r="98">
@@ -3372,26 +3772,31 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso2</t>
+          <t>N-Acetylneuraminate_iso1</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.07676580520992363</v>
+        <v>3.739551050488377</v>
       </c>
       <c r="D98">
-        <v>0.73</v>
+        <v>0.0284</v>
       </c>
       <c r="E98">
-        <v>0.9761304695008719</v>
+        <v>1.644769233981429e-06</v>
       </c>
       <c r="F98">
-        <v>0.8652392035564533</v>
+        <v>0.06067272727272727</v>
       </c>
       <c r="G98">
-        <v>0.1366771398795441</v>
+        <v>1.546681659952962</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I98">
-        <v>0.999991059874566</v>
+        <v>3.474343999870883e-06</v>
       </c>
     </row>
     <row r="99">
@@ -3402,26 +3807,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Isovalerylcarnitine</t>
+          <t>Saccharate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.0594640045302746</v>
+        <v>3.735543154942828</v>
       </c>
       <c r="D99">
-        <v>0.729</v>
+        <v>0.027</v>
       </c>
       <c r="E99">
-        <v>0.981380058925157</v>
+        <v>1.381311560741047e-06</v>
       </c>
       <c r="F99">
-        <v>0.8652392035564533</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G99">
-        <v>0.1372724716820254</v>
+        <v>1.568636235841013</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I99">
-        <v>0.999991059874566</v>
+        <v>3.019611318829265e-06</v>
       </c>
     </row>
     <row r="100">
@@ -3432,26 +3842,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Thyroxine</t>
+          <t>Urate_iso1</t>
         </is>
       </c>
       <c r="C100">
-        <v>0.05367513054116413</v>
+        <v>3.734458167764111</v>
       </c>
       <c r="D100">
-        <v>0.495</v>
+        <v>0.169</v>
       </c>
       <c r="E100">
-        <v>0.9629592165562306</v>
+        <v>0.001307901981085164</v>
       </c>
       <c r="F100">
-        <v>0.7364659263407058</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G100">
-        <v>0.3053948010664313</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I100">
-        <v>0.999991059874566</v>
+        <v>0.001862769488212204</v>
       </c>
     </row>
     <row r="101">
@@ -3462,26 +3877,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
+          <t>Citrate_iso1</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.04810795109024938</v>
+        <v>3.687159051865441</v>
       </c>
       <c r="D101">
-        <v>0.778</v>
+        <v>0.169</v>
       </c>
       <c r="E101">
-        <v>0.9879961489573186</v>
+        <v>0.001422641501512099</v>
       </c>
       <c r="F101">
-        <v>0.8705553364598803</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G101">
-        <v>0.1090204030103111</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I101">
-        <v>0.999991059874566</v>
+        <v>0.002010951896874245</v>
       </c>
     </row>
     <row r="102">
@@ -3492,26 +3912,31 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4-Quinolinecarboxylate</t>
+          <t>Ethylmalonate</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.04453646712734088</v>
+        <v>3.660389211504877</v>
       </c>
       <c r="D102">
-        <v>0.512</v>
+        <v>0.023</v>
       </c>
       <c r="E102">
-        <v>0.9706259791338329</v>
+        <v>1.007595560815258e-06</v>
       </c>
       <c r="F102">
-        <v>0.7364659263407058</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G102">
-        <v>0.2907300390241692</v>
+        <v>1.638272163982407</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I102">
-        <v>0.999991059874566</v>
+        <v>2.338616857200846e-06</v>
       </c>
     </row>
     <row r="103">
@@ -3522,26 +3947,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso2</t>
+          <t>Glycocholic Acid_iso3</t>
         </is>
       </c>
       <c r="C103">
-        <v>0.02480215225267563</v>
+        <v>3.649562071550772</v>
       </c>
       <c r="D103">
-        <v>0.772</v>
+        <v>0.169</v>
       </c>
       <c r="E103">
-        <v>0.9936024808084608</v>
+        <v>0.001520983848369937</v>
       </c>
       <c r="F103">
-        <v>0.8705553364598803</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G103">
-        <v>0.1123826996642638</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I103">
-        <v>0.999991059874566</v>
+        <v>0.002133917638011554</v>
       </c>
     </row>
     <row r="104">
@@ -3552,26 +3982,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
+          <t>Deoxyuridine-Monophosphate</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.02291498302108138</v>
+        <v>3.644811342732794</v>
       </c>
       <c r="D104">
-        <v>0.915</v>
+        <v>0.0789</v>
       </c>
       <c r="E104">
-        <v>0.9979665046051178</v>
+        <v>9.551107894894523e-05</v>
       </c>
       <c r="F104">
-        <v>0.8912071547466283</v>
+        <v>0.1106955223880597</v>
       </c>
       <c r="G104">
-        <v>0.0385789059335517</v>
+        <v>1.10292299679058</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I104">
-        <v>0.999991059874566</v>
+        <v>0.0001589033879858558</v>
       </c>
     </row>
     <row r="105">
@@ -3582,26 +4017,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
+          <t>Cortisone</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.01946753510542244</v>
+        <v>3.621592070820294</v>
       </c>
       <c r="D105">
-        <v>0.893</v>
+        <v>0.0233</v>
       </c>
       <c r="E105">
-        <v>0.9977993094747382</v>
+        <v>1.222444494946442e-06</v>
       </c>
       <c r="F105">
-        <v>0.8759474072093485</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G105">
-        <v>0.04914854111145357</v>
+        <v>1.632644078973981</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I105">
-        <v>0.999991059874566</v>
+        <v>2.735947202975371e-06</v>
       </c>
     </row>
     <row r="106">
@@ -3612,26 +4052,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
+          <t>2-Methylbutyrylcarnitine</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.01736610202093749</v>
+        <v>3.585001514394355</v>
       </c>
       <c r="D106">
-        <v>0.862</v>
+        <v>0.0692</v>
       </c>
       <c r="E106">
-        <v>0.9974244561244761</v>
+        <v>6.946700771636097e-05</v>
       </c>
       <c r="F106">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G106">
-        <v>0.06449273417528721</v>
+        <v>1.159893905543242</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I106">
-        <v>0.999991059874566</v>
+        <v>0.0001176558328889717</v>
       </c>
     </row>
     <row r="107">
@@ -3642,26 +4087,31 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso1</t>
+          <t>Citrulline</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.01410632022452945</v>
+        <v>3.563736521829129</v>
       </c>
       <c r="D107">
-        <v>0.983</v>
+        <v>0.000146</v>
       </c>
       <c r="E107">
-        <v>0.9997581600408518</v>
+        <v>2.141727372815405e-14</v>
       </c>
       <c r="F107">
-        <v>0.9015030908987494</v>
+        <v>0.001524888888888889</v>
       </c>
       <c r="G107">
-        <v>0.007446482167864384</v>
+        <v>3.835647144215563</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I107">
-        <v>0.999991059874566</v>
+        <v>1.220135594209988e-13</v>
       </c>
     </row>
     <row r="108">
@@ -3672,26 +4122,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Creatinine</t>
+          <t>2-Hydroxybutyrate_iso2</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.006237826405775341</v>
+        <v>3.542677970225691</v>
       </c>
       <c r="D108">
-        <v>0.979</v>
+        <v>0.168</v>
       </c>
       <c r="E108">
-        <v>0.9998676194032</v>
+        <v>0.001801027145398807</v>
       </c>
       <c r="F108">
-        <v>0.9015030908987494</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G108">
-        <v>0.009217308196862183</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I108">
-        <v>0.999991059874566</v>
+        <v>0.002453573212572288</v>
       </c>
     </row>
     <row r="109">
@@ -3702,26 +4157,31 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Itaconate_iso1</t>
+          <t>2-Hydroxyoctanoic Acid_iso2</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.003990393936727137</v>
+        <v>3.539769231447487</v>
       </c>
       <c r="D109">
-        <v>0.977</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E109">
-        <v>0.9999071533226648</v>
+        <v>8.75701714694457e-05</v>
       </c>
       <c r="F109">
-        <v>0.9015030908987494</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G109">
-        <v>0.01010543628122694</v>
+        <v>1.146301788223826</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I109">
-        <v>0.999991059874566</v>
+        <v>0.0001469927878237124</v>
       </c>
     </row>
     <row r="110">
@@ -3732,26 +4192,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Succinate_iso1</t>
+          <t>3-Indoleacrylic Acid_iso1</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.003053979390489148</v>
+        <v>3.537479877252182</v>
       </c>
       <c r="D110">
-        <v>0.98</v>
+        <v>0.0222</v>
       </c>
       <c r="E110">
-        <v>0.9999383032515428</v>
+        <v>1.413373430929284e-06</v>
       </c>
       <c r="F110">
-        <v>0.9015030908987494</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G110">
-        <v>0.00877392430750515</v>
+        <v>1.653647025549361</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I110">
-        <v>0.999991059874566</v>
+        <v>3.054186264536843e-06</v>
       </c>
     </row>
     <row r="111">
@@ -3762,26 +4227,31 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>Urate_iso2</t>
         </is>
       </c>
       <c r="C111">
-        <v>-0.00127269116916486</v>
+        <v>3.469720190154237</v>
       </c>
       <c r="D111">
-        <v>0.993</v>
+        <v>0.174</v>
       </c>
       <c r="E111">
-        <v>0.999991059874566</v>
+        <v>0.002316959237863949</v>
       </c>
       <c r="F111">
-        <v>0.9015030908987494</v>
+        <v>0.1935621301775148</v>
       </c>
       <c r="G111">
-        <v>0.003050751504618827</v>
+        <v>0.7594507517174003</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I111">
-        <v>0.999991059874566</v>
+        <v>0.003111345262274445</v>
       </c>
     </row>
     <row r="112">
@@ -3792,26 +4262,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso2</t>
+          <t>Caffeate_iso2</t>
         </is>
       </c>
       <c r="C112">
-        <v>-0.004138809475475842</v>
+        <v>3.469575477211227</v>
       </c>
       <c r="D112">
-        <v>0.986</v>
+        <v>0.0315</v>
       </c>
       <c r="E112">
-        <v>0.9999416489406733</v>
+        <v>6.162758126426915e-06</v>
       </c>
       <c r="F112">
-        <v>0.9015030908987494</v>
+        <v>0.06653932584269663</v>
       </c>
       <c r="G112">
-        <v>0.006123085058788794</v>
+        <v>1.5016894462104</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I112">
-        <v>0.999991059874566</v>
+        <v>1.2195773976508e-05</v>
       </c>
     </row>
     <row r="113">
@@ -3822,26 +4297,31 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso3</t>
+          <t>3-Me-Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C113">
-        <v>-0.00558009002270361</v>
+        <v>3.461206606053714</v>
       </c>
       <c r="D113">
-        <v>0.98</v>
+        <v>0.0234</v>
       </c>
       <c r="E113">
-        <v>0.9998872734285833</v>
+        <v>2.267353066430655e-06</v>
       </c>
       <c r="F113">
-        <v>0.9015030908987494</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G113">
-        <v>0.00877392430750515</v>
+        <v>1.630784142589857</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I113">
-        <v>0.999991059874566</v>
+        <v>4.684201939439156e-06</v>
       </c>
     </row>
     <row r="114">
@@ -3852,26 +4332,31 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Citrate_iso1</t>
+          <t>Indoxyl Sulfate_iso1</t>
         </is>
       </c>
       <c r="C114">
-        <v>-0.006021041227699799</v>
+        <v>3.459498208824523</v>
       </c>
       <c r="D114">
-        <v>0.982</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="E114">
-        <v>0.9998906399642368</v>
+        <v>9.859355031925354e-05</v>
       </c>
       <c r="F114">
-        <v>0.9015030908987494</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G114">
-        <v>0.00788851221305034</v>
+        <v>1.158015195409886</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I114">
-        <v>0.999991059874566</v>
+        <v>0.0001625928724563129</v>
       </c>
     </row>
     <row r="115">
@@ -3882,26 +4367,31 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso2</t>
+          <t>Histidine</t>
         </is>
       </c>
       <c r="C115">
-        <v>-0.007223074741363221</v>
+        <v>3.393998070778446</v>
       </c>
       <c r="D115">
-        <v>0.989</v>
+        <v>0.0139</v>
       </c>
       <c r="E115">
-        <v>0.9999201091419572</v>
+        <v>4.981909277462329e-07</v>
       </c>
       <c r="F115">
-        <v>0.9015030908987494</v>
+        <v>0.05444166666666667</v>
       </c>
       <c r="G115">
-        <v>0.004803708402820599</v>
+        <v>1.856985199745905</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I115">
-        <v>0.999991059874566</v>
+        <v>1.216362265146647e-06</v>
       </c>
     </row>
     <row r="116">
@@ -3912,26 +4402,31 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ketoleucine</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
         </is>
       </c>
       <c r="C116">
-        <v>-0.02556293628261798</v>
+        <v>3.353020515227991</v>
       </c>
       <c r="D116">
-        <v>0.794</v>
+        <v>0.0712</v>
       </c>
       <c r="E116">
-        <v>0.9941207021344081</v>
+        <v>0.0001420175044921801</v>
       </c>
       <c r="F116">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G116">
-        <v>0.1001794975729037</v>
+        <v>1.147520006363144</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I116">
-        <v>0.999991059874566</v>
+        <v>0.0002321677464741728</v>
       </c>
     </row>
     <row r="117">
@@ -3942,26 +4437,31 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Oxoproline</t>
+          <t>Sebacate</t>
         </is>
       </c>
       <c r="C117">
-        <v>-0.02740216665539075</v>
+        <v>3.345737120498395</v>
       </c>
       <c r="D117">
-        <v>0.85</v>
+        <v>0.0725</v>
       </c>
       <c r="E117">
-        <v>0.9955565307610659</v>
+        <v>0.0001538121220045411</v>
       </c>
       <c r="F117">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G117">
-        <v>0.07058107428570728</v>
+        <v>1.139661993429006</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I117">
-        <v>0.999991059874566</v>
+        <v>0.0002492817149728769</v>
       </c>
     </row>
     <row r="118">
@@ -3972,26 +4472,31 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
+          <t>Idp (Inosine 5'-Diphosphate)</t>
         </is>
       </c>
       <c r="C118">
-        <v>-0.03065923411372733</v>
+        <v>3.326991477847458</v>
       </c>
       <c r="D118">
-        <v>0.879</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="E118">
-        <v>0.9960536741766757</v>
+        <v>1.127745116319382e-07</v>
       </c>
       <c r="F118">
-        <v>0.8750912423141869</v>
+        <v>0.03409066666666667</v>
       </c>
       <c r="G118">
-        <v>0.0560111249262281</v>
+        <v>2.088309841246139</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I118">
-        <v>0.999991059874566</v>
+        <v>2.904329888603341e-07</v>
       </c>
     </row>
     <row r="119">
@@ -4002,26 +4507,31 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Urate_iso1</t>
+          <t>Indole-3-Acetate_[M+Na]+</t>
         </is>
       </c>
       <c r="C119">
-        <v>-0.03083357166038625</v>
+        <v>3.279148282902832</v>
       </c>
       <c r="D119">
-        <v>0.859</v>
+        <v>0.0223</v>
       </c>
       <c r="E119">
-        <v>0.9953246812579885</v>
+        <v>3.8357185053571e-06</v>
       </c>
       <c r="F119">
-        <v>0.8705553364598803</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G119">
-        <v>0.0660068361687577</v>
+        <v>1.651695136951839</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I119">
-        <v>0.999991059874566</v>
+        <v>7.6714370107142e-06</v>
       </c>
     </row>
     <row r="120">
@@ -4032,26 +4542,31 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>L-Arginine</t>
+          <t>Indole-3-Methyl Acetate</t>
         </is>
       </c>
       <c r="C120">
-        <v>-0.03446633441008989</v>
+        <v>3.254699372126194</v>
       </c>
       <c r="D120">
-        <v>0.831</v>
+        <v>0.0469</v>
       </c>
       <c r="E120">
-        <v>0.9936397159387805</v>
+        <v>4.732243523382501e-05</v>
       </c>
       <c r="F120">
-        <v>0.8705553364598803</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="G120">
-        <v>0.08039897621588903</v>
+        <v>1.328827157284917</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I120">
-        <v>0.999991059874566</v>
+        <v>8.087834385417367e-05</v>
       </c>
     </row>
     <row r="121">
@@ -4062,26 +4577,31 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ascorbate</t>
+          <t>Methionine_iso1</t>
         </is>
       </c>
       <c r="C121">
-        <v>-0.03595014719621362</v>
+        <v>3.25277742574221</v>
       </c>
       <c r="D121">
-        <v>0.925</v>
+        <v>0.0693</v>
       </c>
       <c r="E121">
-        <v>0.997201195086335</v>
+        <v>0.0001694974758663281</v>
       </c>
       <c r="F121">
-        <v>0.8919577580196546</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G121">
-        <v>0.03385826726096737</v>
+        <v>1.159266765388193</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I121">
-        <v>0.999991059874566</v>
+        <v>0.0002723549184860657</v>
       </c>
     </row>
     <row r="122">
@@ -4092,26 +4612,31 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
+          <t>Benzoate</t>
         </is>
       </c>
       <c r="C122">
-        <v>-0.03624223247534107</v>
+        <v>3.197160979976589</v>
       </c>
       <c r="D122">
-        <v>0.792</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="E122">
-        <v>0.9915841461785742</v>
+        <v>0.0002172861184500307</v>
       </c>
       <c r="F122">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G122">
-        <v>0.1012748184105065</v>
+        <v>1.145693958198919</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I122">
-        <v>0.999991059874566</v>
+        <v>0.0003461846632932692</v>
       </c>
     </row>
     <row r="123">
@@ -4122,26 +4647,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>L-Tryptophan</t>
+          <t>Hydroxyphenyllactate</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.03668965445924335</v>
+        <v>3.112358525099725</v>
       </c>
       <c r="D123">
-        <v>0.6860000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="E123">
-        <v>0.9862676501116521</v>
+        <v>0.003880473649271105</v>
       </c>
       <c r="F123">
-        <v>0.8423355620786508</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G123">
-        <v>0.1636758842932483</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I123">
-        <v>0.999991059874566</v>
+        <v>0.005101601720720054</v>
       </c>
     </row>
     <row r="124">
@@ -4152,26 +4682,31 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hydroxyphenyllactate</t>
+          <t>2-Hydroxyphenylacetate_iso3</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.03828501271518562</v>
+        <v>3.090376389228924</v>
       </c>
       <c r="D124">
-        <v>0.887</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="E124">
-        <v>0.9954197542324121</v>
+        <v>0.0002421558108604712</v>
       </c>
       <c r="F124">
-        <v>0.8750912423141869</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G124">
-        <v>0.0520763801682736</v>
+        <v>1.170053304058364</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I124">
-        <v>0.999991059874566</v>
+        <v>0.0003825654827039377</v>
       </c>
     </row>
     <row r="125">
@@ -4182,26 +4717,31 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cortisol</t>
+          <t>4-Coumarate</t>
         </is>
       </c>
       <c r="C125">
-        <v>-0.03830451753383626</v>
+        <v>3.052496147821131</v>
       </c>
       <c r="D125">
-        <v>0.946</v>
+        <v>0.157</v>
       </c>
       <c r="E125">
-        <v>0.9978758715896091</v>
+        <v>0.003511452407009248</v>
       </c>
       <c r="F125">
-        <v>0.9015030908987494</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G125">
-        <v>0.02410886359820726</v>
+        <v>0.8041003475907662</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I125">
-        <v>0.999991059874566</v>
+        <v>0.004648965158575624</v>
       </c>
     </row>
     <row r="126">
@@ -4212,26 +4752,31 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso1</t>
+          <t>Succinate_iso1</t>
         </is>
       </c>
       <c r="C126">
-        <v>-0.04501674589763669</v>
+        <v>3.015540250976217</v>
       </c>
       <c r="D126">
-        <v>0.919</v>
+        <v>0.0354</v>
       </c>
       <c r="E126">
-        <v>0.9962046938891967</v>
+        <v>4.211733979737895e-05</v>
       </c>
       <c r="F126">
-        <v>0.8912071547466283</v>
+        <v>0.07394666666666666</v>
       </c>
       <c r="G126">
-        <v>0.03668448861388872</v>
+        <v>1.450996737974212</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I126">
-        <v>0.999991059874566</v>
+        <v>7.331536927691892e-05</v>
       </c>
     </row>
     <row r="127">
@@ -4242,26 +4787,31 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3-Me-Glutarylcarnitine</t>
+          <t>3-Hydroxyglutaric Acid_iso2</t>
         </is>
       </c>
       <c r="C127">
-        <v>-0.04749350570551767</v>
+        <v>3.01250196200355</v>
       </c>
       <c r="D127">
-        <v>0.886</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="E127">
-        <v>0.9942679566700853</v>
+        <v>0.0004051598056703879</v>
       </c>
       <c r="F127">
-        <v>0.8750912423141869</v>
+        <v>0.1098625</v>
       </c>
       <c r="G127">
-        <v>0.05256627811294924</v>
+        <v>1.126098402135539</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I127">
-        <v>0.999991059874566</v>
+        <v>0.0006192686460653083</v>
       </c>
     </row>
     <row r="128">
@@ -4272,26 +4822,31 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sebacate</t>
+          <t>Gluconate</t>
         </is>
       </c>
       <c r="C128">
-        <v>-0.04819696259136534</v>
+        <v>3.005529617807449</v>
       </c>
       <c r="D128">
-        <v>0.826</v>
+        <v>0.0712</v>
       </c>
       <c r="E128">
-        <v>0.9908289571835649</v>
+        <v>0.000355708819962373</v>
       </c>
       <c r="F128">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G128">
-        <v>0.0830199526796178</v>
+        <v>1.147520006363144</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I128">
-        <v>0.999991059874566</v>
+        <v>0.000555004456115743</v>
       </c>
     </row>
     <row r="129">
@@ -4302,26 +4857,31 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Gluconate</t>
+          <t>2-Oxindole</t>
         </is>
       </c>
       <c r="C129">
-        <v>-0.05220756062989501</v>
+        <v>2.958211387372176</v>
       </c>
       <c r="D129">
-        <v>0.792</v>
+        <v>0.0269</v>
       </c>
       <c r="E129">
-        <v>0.9878993251942706</v>
+        <v>2.263994219731296e-05</v>
       </c>
       <c r="F129">
-        <v>0.8705553364598803</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G129">
-        <v>0.1012748184105065</v>
+        <v>1.570247719997592</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I129">
-        <v>0.999991059874566</v>
+        <v>4.256309133094837e-05</v>
       </c>
     </row>
     <row r="130">
@@ -4336,22 +4896,27 @@
         </is>
       </c>
       <c r="C130">
-        <v>-0.05351089582349512</v>
+        <v>2.957411855651457</v>
       </c>
       <c r="D130">
-        <v>0.961</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="E130">
-        <v>0.9978735541053213</v>
+        <v>0.0007406505706803065</v>
       </c>
       <c r="F130">
-        <v>0.9015030908987494</v>
+        <v>0.1182100719424461</v>
       </c>
       <c r="G130">
-        <v>0.01727661233145466</v>
+        <v>1.058488567365597</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I130">
-        <v>0.999991059874566</v>
+        <v>0.0010878305256867</v>
       </c>
     </row>
     <row r="131">
@@ -4362,26 +4927,31 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso1</t>
+          <t>Tauro-?-Muricholic Acid</t>
         </is>
       </c>
       <c r="C131">
-        <v>-0.05637145564260484</v>
+        <v>2.942770277829447</v>
       </c>
       <c r="D131">
-        <v>0.862</v>
+        <v>0.167</v>
       </c>
       <c r="E131">
-        <v>0.9916637789758824</v>
+        <v>0.005159803156336881</v>
       </c>
       <c r="F131">
-        <v>0.8705553364598803</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G131">
-        <v>0.06449273417528721</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I131">
-        <v>0.999991059874566</v>
+        <v>0.006736409676328705</v>
       </c>
     </row>
     <row r="132">
@@ -4392,26 +4962,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2,6-Dihydroxypyridine</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
         </is>
       </c>
       <c r="C132">
-        <v>-0.05761612487614452</v>
+        <v>2.92311897679329</v>
       </c>
       <c r="D132">
-        <v>0.8080000000000001</v>
+        <v>0.0788</v>
       </c>
       <c r="E132">
-        <v>0.9877917654004191</v>
+        <v>0.0005948601084569743</v>
       </c>
       <c r="F132">
-        <v>0.8705553364598803</v>
+        <v>0.1106955223880597</v>
       </c>
       <c r="G132">
-        <v>0.09258863922541381</v>
+        <v>1.103473782510445</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I132">
-        <v>0.999991059874566</v>
+        <v>0.0008946696031192894</v>
       </c>
     </row>
     <row r="133">
@@ -4422,26 +4997,31 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso4</t>
+          <t>Methyl 4-Aminobutyrate</t>
         </is>
       </c>
       <c r="C133">
-        <v>-0.06091170698914456</v>
+        <v>2.891722644825076</v>
       </c>
       <c r="D133">
-        <v>0.728</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="E133">
-        <v>0.9808490752733731</v>
+        <v>0.0003961081573734421</v>
       </c>
       <c r="F133">
-        <v>0.8652392035564533</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G133">
-        <v>0.1378686206869628</v>
+        <v>1.176525770829699</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I133">
-        <v>0.999991059874566</v>
+        <v>0.000610396176936124</v>
       </c>
     </row>
     <row r="134">
@@ -4452,26 +5032,31 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3-Methyl-2-Oxopentanoic Acid</t>
+          <t>_13-Hydroxyoctadecadienoic Acid</t>
         </is>
       </c>
       <c r="C134">
-        <v>-0.06765674784586806</v>
+        <v>2.884016115971201</v>
       </c>
       <c r="D134">
-        <v>0.483</v>
+        <v>0.167</v>
       </c>
       <c r="E134">
-        <v>0.9519560333895268</v>
+        <v>0.005731941853152416</v>
       </c>
       <c r="F134">
-        <v>0.7364659263407058</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G134">
-        <v>0.3160528692484879</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I134">
-        <v>0.999991059874566</v>
+        <v>0.007431759092363132</v>
       </c>
     </row>
     <row r="135">
@@ -4482,26 +5067,31 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso3</t>
+          <t>1-Hydroxy-2-Naphthoate</t>
         </is>
       </c>
       <c r="C135">
-        <v>-0.06775709450579477</v>
+        <v>2.854553540696481</v>
       </c>
       <c r="D135">
-        <v>0.849</v>
+        <v>0.0848</v>
       </c>
       <c r="E135">
-        <v>0.9889697130687415</v>
+        <v>0.0008730690357927441</v>
       </c>
       <c r="F135">
-        <v>0.8705553364598803</v>
+        <v>0.1172235294117647</v>
       </c>
       <c r="G135">
-        <v>0.07109230975604734</v>
+        <v>1.071604147743286</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I135">
-        <v>0.999991059874566</v>
+        <v>0.001262592144069507</v>
       </c>
     </row>
     <row r="136">
@@ -4512,26 +5102,31 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso2</t>
+          <t>3-Methyl-2-Oxopentanoic Acid</t>
         </is>
       </c>
       <c r="C136">
-        <v>-0.07354106190216113</v>
+        <v>2.852524655764387</v>
       </c>
       <c r="D136">
-        <v>0.78</v>
+        <v>0.172</v>
       </c>
       <c r="E136">
-        <v>0.9818938107134294</v>
+        <v>0.006596689552350543</v>
       </c>
       <c r="F136">
-        <v>0.8705553364598803</v>
+        <v>0.1924761904761905</v>
       </c>
       <c r="G136">
-        <v>0.1079053973095196</v>
+        <v>0.7644715530924511</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I136">
-        <v>0.999991059874566</v>
+        <v>0.008494367368780151</v>
       </c>
     </row>
     <row r="137">
@@ -4542,26 +5137,31 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso1</t>
+          <t>Mevalonate</t>
         </is>
       </c>
       <c r="C137">
-        <v>-0.07368657759604498</v>
+        <v>2.851494774051632</v>
       </c>
       <c r="D137">
-        <v>0.836</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="E137">
-        <v>0.9868874968832277</v>
+        <v>0.0006509154198076821</v>
       </c>
       <c r="F137">
-        <v>0.8705553364598803</v>
+        <v>0.1106955223880597</v>
       </c>
       <c r="G137">
-        <v>0.07779372256098363</v>
+        <v>1.117475462045119</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I137">
-        <v>0.999991059874566</v>
+        <v>0.0009635598340460175</v>
       </c>
     </row>
     <row r="138">
@@ -4572,26 +5172,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cortisone</t>
+          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
         </is>
       </c>
       <c r="C138">
-        <v>-0.0739885370590246</v>
+        <v>2.76405860448634</v>
       </c>
       <c r="D138">
-        <v>0.801</v>
+        <v>0.0663</v>
       </c>
       <c r="E138">
-        <v>0.9837163978878525</v>
+        <v>0.0005528334692593002</v>
       </c>
       <c r="F138">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G138">
-        <v>0.09636748391576232</v>
+        <v>1.178486471595227</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I138">
-        <v>0.999991059874566</v>
+        <v>0.0008381668727479713</v>
       </c>
     </row>
     <row r="139">
@@ -4602,26 +5207,31 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Urate_iso2</t>
+          <t>Glutamine_iso1</t>
         </is>
       </c>
       <c r="C139">
-        <v>-0.07713392553914881</v>
+        <v>2.703459300192528</v>
       </c>
       <c r="D139">
-        <v>0.282</v>
+        <v>0.0953</v>
       </c>
       <c r="E139">
-        <v>0.9069754999424942</v>
+        <v>0.001737877688390557</v>
       </c>
       <c r="F139">
-        <v>0.6619512366638485</v>
+        <v>0.1279742857142857</v>
       </c>
       <c r="G139">
-        <v>0.549750891680639</v>
+        <v>1.020907099361674</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I139">
-        <v>0.999991059874566</v>
+        <v>0.002384824857061494</v>
       </c>
     </row>
     <row r="140">
@@ -4632,26 +5242,31 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sphinganine</t>
+          <t>4-Quinolinecarboxylate</t>
         </is>
       </c>
       <c r="C140">
-        <v>-0.1060307521154851</v>
+        <v>2.683359789207727</v>
       </c>
       <c r="D140">
-        <v>0.8</v>
+        <v>0.024</v>
       </c>
       <c r="E140">
-        <v>0.9766176265966511</v>
+        <v>4.503228445848453e-05</v>
       </c>
       <c r="F140">
-        <v>0.8705553364598803</v>
+        <v>0.06033488372093023</v>
       </c>
       <c r="G140">
-        <v>0.09691001300805639</v>
+        <v>1.619788758288394</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I140">
-        <v>0.999991059874566</v>
+        <v>7.767036218527607e-05</v>
       </c>
     </row>
     <row r="141">
@@ -4662,26 +5277,31 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso2</t>
+          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C141">
-        <v>-0.1060739271441298</v>
+        <v>2.681150967754264</v>
       </c>
       <c r="D141">
-        <v>0.67</v>
+        <v>0.0518</v>
       </c>
       <c r="E141">
-        <v>0.9584094147917198</v>
+        <v>0.0003572103148404517</v>
       </c>
       <c r="F141">
-        <v>0.8346993136599001</v>
+        <v>0.1025094736842105</v>
       </c>
       <c r="G141">
-        <v>0.1739251972991736</v>
+        <v>1.285670240254767</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I141">
-        <v>0.999991059874566</v>
+        <v>0.000555004456115743</v>
       </c>
     </row>
     <row r="142">
@@ -4692,26 +5312,31 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Aspartame</t>
+          <t>Glycocholate</t>
         </is>
       </c>
       <c r="C142">
-        <v>-0.1063543947743723</v>
+        <v>2.668944216851924</v>
       </c>
       <c r="D142">
-        <v>0.352</v>
+        <v>0.164</v>
       </c>
       <c r="E142">
-        <v>0.894896520374774</v>
+        <v>0.008025313911694427</v>
       </c>
       <c r="F142">
-        <v>0.6770200453033508</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G142">
-        <v>0.453457336521869</v>
+        <v>0.7851561519523022</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I142">
-        <v>0.999991059874566</v>
+        <v>0.01005839343599035</v>
       </c>
     </row>
     <row r="143">
@@ -4722,26 +5347,31 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mevalonate</t>
+          <t>2-Hydroxyoctanoic Acid_iso1</t>
         </is>
       </c>
       <c r="C143">
-        <v>-0.1068052060420264</v>
+        <v>2.633664220505598</v>
       </c>
       <c r="D143">
-        <v>0.709</v>
+        <v>0.159</v>
       </c>
       <c r="E143">
-        <v>0.963936089355692</v>
+        <v>0.00788402839810593</v>
       </c>
       <c r="F143">
-        <v>0.8582285215806825</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G143">
-        <v>0.1493537648169335</v>
+        <v>0.7986028756795485</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I143">
-        <v>0.999991059874566</v>
+        <v>0.009947633146603454</v>
       </c>
     </row>
     <row r="144">
@@ -4752,26 +5382,31 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso2</t>
+          <t>Glycocholic Acid_iso2</t>
         </is>
       </c>
       <c r="C144">
-        <v>-0.1138219962434206</v>
+        <v>2.554388232611168</v>
       </c>
       <c r="D144">
-        <v>0.616</v>
+        <v>0.164</v>
       </c>
       <c r="E144">
-        <v>0.9463453589560725</v>
+        <v>0.009872027686579556</v>
       </c>
       <c r="F144">
-        <v>0.7964941709451185</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G144">
-        <v>0.2104192878355745</v>
+        <v>0.7851561519523022</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I144">
-        <v>0.999991059874566</v>
+        <v>0.01229100135812554</v>
       </c>
     </row>
     <row r="145">
@@ -4782,26 +5417,31 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3-Methylindole</t>
+          <t>Homovanillate_iso2</t>
         </is>
       </c>
       <c r="C145">
-        <v>-0.114045703277603</v>
+        <v>2.536532698532668</v>
       </c>
       <c r="D145">
-        <v>0.242</v>
+        <v>0.0553</v>
       </c>
       <c r="E145">
-        <v>0.8506027649036255</v>
+        <v>0.0006469655928930369</v>
       </c>
       <c r="F145">
-        <v>0.6619512366638485</v>
+        <v>0.1082958333333333</v>
       </c>
       <c r="G145">
-        <v>0.6161846340195687</v>
+        <v>1.257274868695302</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I145">
-        <v>0.999991059874566</v>
+        <v>0.0009635598340460175</v>
       </c>
     </row>
     <row r="146">
@@ -4812,26 +5452,31 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso2</t>
+          <t>Kynurenic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C146">
-        <v>-0.118597071312628</v>
+        <v>2.520083416404234</v>
       </c>
       <c r="D146">
-        <v>0.803</v>
+        <v>0.0608</v>
       </c>
       <c r="E146">
-        <v>0.9743153454367579</v>
+        <v>0.0008616592952503113</v>
       </c>
       <c r="F146">
-        <v>0.8705553364598803</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G146">
-        <v>0.09528445472131904</v>
+        <v>1.216096420727265</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I146">
-        <v>0.999991059874566</v>
+        <v>0.001255751531062469</v>
       </c>
     </row>
     <row r="147">
@@ -4842,26 +5487,31 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Glutarylcarnitine</t>
+          <t>Phenylpyruvate</t>
         </is>
       </c>
       <c r="C147">
-        <v>-0.1187608131190979</v>
+        <v>2.488765552756331</v>
       </c>
       <c r="D147">
-        <v>0.0649</v>
+        <v>0.0746</v>
       </c>
       <c r="E147">
-        <v>0.7226719769455946</v>
+        <v>0.001564988767686833</v>
       </c>
       <c r="F147">
-        <v>0.3819640765591492</v>
+        <v>0.1098625</v>
       </c>
       <c r="G147">
-        <v>1.187755303199631</v>
+        <v>1.127261172527331</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I147">
-        <v>0.999991059874566</v>
+        <v>0.002179391765371293</v>
       </c>
     </row>
     <row r="148">
@@ -4872,26 +5522,31 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso1</t>
+          <t>Glycoursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C148">
-        <v>-0.131569413376922</v>
+        <v>2.425728926176681</v>
       </c>
       <c r="D148">
-        <v>0.542</v>
+        <v>0.161</v>
       </c>
       <c r="E148">
-        <v>0.9225766150734405</v>
+        <v>0.01191172295591567</v>
       </c>
       <c r="F148">
-        <v>0.7364659263407058</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G148">
-        <v>0.266000713461613</v>
+        <v>0.7931741239681502</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I148">
-        <v>0.999991059874566</v>
+        <v>0.01472827385189568</v>
       </c>
     </row>
     <row r="149">
@@ -4902,26 +5557,31 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Phenylpyruvate</t>
+          <t>Homovanillate_iso1</t>
         </is>
       </c>
       <c r="C149">
-        <v>-0.1342663373312002</v>
+        <v>2.424340605251132</v>
       </c>
       <c r="D149">
-        <v>0.478</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="E149">
-        <v>0.9056449250820978</v>
+        <v>0.001720354332171539</v>
       </c>
       <c r="F149">
-        <v>0.7364659263407058</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G149">
-        <v>0.3205721033878811</v>
+        <v>1.140261433802853</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I149">
-        <v>0.999991059874566</v>
+        <v>0.002378136870943009</v>
       </c>
     </row>
     <row r="150">
@@ -4932,26 +5592,31 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cysteine</t>
+          <t>Ferulate</t>
         </is>
       </c>
       <c r="C150">
-        <v>-0.1369804442724881</v>
+        <v>2.357587491232139</v>
       </c>
       <c r="D150">
-        <v>0.548</v>
+        <v>0.159</v>
       </c>
       <c r="E150">
-        <v>0.9209118149695152</v>
+        <v>0.0130985689288799</v>
       </c>
       <c r="F150">
-        <v>0.7364659263407058</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G150">
-        <v>0.2612194415156308</v>
+        <v>0.7986028756795485</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I150">
-        <v>0.999991059874566</v>
+        <v>0.01588729650728659</v>
       </c>
     </row>
     <row r="151">
@@ -4962,26 +5627,31 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>6-Carboxyhexanoate</t>
+          <t>Creatinine</t>
         </is>
       </c>
       <c r="C151">
-        <v>-0.1404537393683373</v>
+        <v>2.356023414446355</v>
       </c>
       <c r="D151">
-        <v>0.286</v>
+        <v>0.156</v>
       </c>
       <c r="E151">
-        <v>0.8387732595210818</v>
+        <v>0.01255979818826039</v>
       </c>
       <c r="F151">
-        <v>0.6619512366638485</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G151">
-        <v>0.543633966870957</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I151">
-        <v>0.999991059874566</v>
+        <v>0.01533274064540879</v>
       </c>
     </row>
     <row r="152">
@@ -4992,26 +5662,31 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proline</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
         </is>
       </c>
       <c r="C152">
-        <v>-0.1438310945260418</v>
+        <v>2.304142575057817</v>
       </c>
       <c r="D152">
-        <v>0.346</v>
+        <v>0.0709</v>
       </c>
       <c r="E152">
-        <v>0.858429849891935</v>
+        <v>0.00224763122408573</v>
       </c>
       <c r="F152">
-        <v>0.6770200453033508</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G152">
-        <v>0.4609239012072234</v>
+        <v>1.149353764816933</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I152">
-        <v>0.999991059874566</v>
+        <v>0.003039961655597966</v>
       </c>
     </row>
     <row r="153">
@@ -5022,26 +5697,31 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Leucine</t>
+          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
         </is>
       </c>
       <c r="C153">
-        <v>-0.1440156794418284</v>
+        <v>2.280102766742697</v>
       </c>
       <c r="D153">
-        <v>0.206</v>
+        <v>0.153</v>
       </c>
       <c r="E153">
-        <v>0.7965006261621115</v>
+        <v>0.01383606761410776</v>
       </c>
       <c r="F153">
-        <v>0.6619512366638485</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G153">
-        <v>0.6861327796308466</v>
+        <v>0.8153085691824012</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I153">
-        <v>0.999991059874566</v>
+        <v>0.01667423532982217</v>
       </c>
     </row>
     <row r="154">
@@ -5052,26 +5732,31 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso2</t>
+          <t>N-Acetylneuraminate_iso2</t>
         </is>
       </c>
       <c r="C154">
-        <v>-0.1521222370104515</v>
+        <v>2.245871463044355</v>
       </c>
       <c r="D154">
-        <v>0.128</v>
+        <v>0.161</v>
       </c>
       <c r="E154">
-        <v>0.731453602830499</v>
+        <v>0.01654370852051167</v>
       </c>
       <c r="F154">
-        <v>0.5689244078179418</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G154">
-        <v>0.8927900303521317</v>
+        <v>0.7931741239681502</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I154">
-        <v>0.999991059874566</v>
+        <v>0.01968491899908984</v>
       </c>
     </row>
     <row r="155">
@@ -5082,26 +5767,31 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Glutamate Acid</t>
+          <t>L-Arginine</t>
         </is>
       </c>
       <c r="C155">
-        <v>-0.1540443106828793</v>
+        <v>2.22850313771131</v>
       </c>
       <c r="D155">
-        <v>0.681</v>
+        <v>0.154</v>
       </c>
       <c r="E155">
-        <v>0.9425345130881906</v>
+        <v>0.01546633372931447</v>
       </c>
       <c r="F155">
-        <v>0.8422554820087358</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G155">
-        <v>0.1668528880872148</v>
+        <v>0.8124792791635369</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I155">
-        <v>0.999991059874566</v>
+        <v>0.01852019580325555</v>
       </c>
     </row>
     <row r="156">
@@ -5112,26 +5802,31 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Phenylalanine</t>
+          <t>Oxoproline</t>
         </is>
       </c>
       <c r="C156">
-        <v>-0.1542071617095456</v>
+        <v>2.204043690566947</v>
       </c>
       <c r="D156">
-        <v>0.165</v>
+        <v>0.0646</v>
       </c>
       <c r="E156">
-        <v>0.7574089279296484</v>
+        <v>0.002386165092369017</v>
       </c>
       <c r="F156">
-        <v>0.633402507370642</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G156">
-        <v>0.7825160557860937</v>
+        <v>1.189767482004916</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I156">
-        <v>0.999991059874566</v>
+        <v>0.003181553456492023</v>
       </c>
     </row>
     <row r="157">
@@ -5142,26 +5837,31 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso2</t>
+          <t>Itaconate_iso1</t>
         </is>
       </c>
       <c r="C157">
-        <v>-0.15441669832869</v>
+        <v>2.055721334033011</v>
       </c>
       <c r="D157">
-        <v>0.782</v>
+        <v>0.15</v>
       </c>
       <c r="E157">
-        <v>0.9627407162700574</v>
+        <v>0.02024292303732119</v>
       </c>
       <c r="F157">
-        <v>0.8705553364598803</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G157">
-        <v>0.106793246940152</v>
+        <v>0.8239087409443188</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I157">
-        <v>0.999991059874566</v>
+        <v>0.02393502849695839</v>
       </c>
     </row>
     <row r="158">
@@ -5172,26 +5872,31 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso1</t>
+          <t>Caffeate_iso1</t>
         </is>
       </c>
       <c r="C158">
-        <v>-0.1621274125922968</v>
+        <v>2.002436744272308</v>
       </c>
       <c r="D158">
-        <v>0.546</v>
+        <v>0.152</v>
       </c>
       <c r="E158">
-        <v>0.9065499184112283</v>
+        <v>0.02299818366407939</v>
       </c>
       <c r="F158">
-        <v>0.7364659263407058</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G158">
-        <v>0.2628073572952627</v>
+        <v>0.8181564120552275</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I158">
-        <v>0.999991059874566</v>
+        <v>0.02685502191830388</v>
       </c>
     </row>
     <row r="159">
@@ -5202,26 +5907,31 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Methionine_iso2</t>
+          <t>Indoxyl Sulfate_iso2</t>
         </is>
       </c>
       <c r="C159">
-        <v>-0.1657959041852417</v>
+        <v>1.987013007615613</v>
       </c>
       <c r="D159">
-        <v>0.371</v>
+        <v>0.157</v>
       </c>
       <c r="E159">
-        <v>0.8484064429734229</v>
+        <v>0.02524888183928586</v>
       </c>
       <c r="F159">
-        <v>0.6845445294067494</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G159">
-        <v>0.4306260903849541</v>
+        <v>0.8041003475907662</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I159">
-        <v>0.999991059874566</v>
+        <v>0.02930117151719594</v>
       </c>
     </row>
     <row r="160">
@@ -5232,26 +5942,31 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>L-Carnitine</t>
+          <t>Cystine</t>
         </is>
       </c>
       <c r="C160">
-        <v>-0.1743701231224853</v>
+        <v>1.979977685306976</v>
       </c>
       <c r="D160">
-        <v>0.476</v>
+        <v>0.0862</v>
       </c>
       <c r="E160">
-        <v>0.8785860121740019</v>
+        <v>0.007804195499158436</v>
       </c>
       <c r="F160">
-        <v>0.7364659263407058</v>
+        <v>0.117431884057971</v>
       </c>
       <c r="G160">
-        <v>0.3223930472795069</v>
+        <v>1.064492734175287</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I160">
-        <v>0.999991059874566</v>
+        <v>0.009913437525958014</v>
       </c>
     </row>
     <row r="161">
@@ -5262,26 +5977,31 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>L-Tyrosine</t>
+          <t>3-Methylindole</t>
         </is>
       </c>
       <c r="C161">
-        <v>-0.1789928736886763</v>
+        <v>1.927750732056521</v>
       </c>
       <c r="D161">
-        <v>0.122</v>
+        <v>0.152</v>
       </c>
       <c r="E161">
-        <v>0.6862224476793972</v>
+        <v>0.02647270851306788</v>
       </c>
       <c r="F161">
-        <v>0.5627738736793695</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G161">
-        <v>0.9136401693252518</v>
+        <v>0.8181564120552275</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I161">
-        <v>0.999991059874566</v>
+        <v>0.03053293988010283</v>
       </c>
     </row>
     <row r="162">
@@ -5292,26 +6012,26 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Theobromine</t>
+          <t>2,6-Dihydroxypyridine</t>
         </is>
       </c>
       <c r="C162">
-        <v>-0.1821782473685165</v>
+        <v>1.840796186648697</v>
       </c>
       <c r="D162">
-        <v>0.647</v>
+        <v>0.324</v>
       </c>
       <c r="E162">
-        <v>0.9237423892906004</v>
+        <v>0.1256067912449743</v>
       </c>
       <c r="F162">
-        <v>0.8240912504288248</v>
+        <v>0.3367472527472528</v>
       </c>
       <c r="G162">
-        <v>0.1890957193312996</v>
+        <v>0.4894549897933879</v>
       </c>
       <c r="I162">
-        <v>0.999991059874566</v>
+        <v>0.1380940161055857</v>
       </c>
     </row>
     <row r="163">
@@ -5322,26 +6042,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso1</t>
+          <t>Aspartame</t>
         </is>
       </c>
       <c r="C163">
-        <v>-0.1844883514289767</v>
+        <v>1.830263323252104</v>
       </c>
       <c r="D163">
-        <v>0.373</v>
+        <v>0.231</v>
       </c>
       <c r="E163">
-        <v>0.8336529060914055</v>
+        <v>0.06842933939922105</v>
       </c>
       <c r="F163">
-        <v>0.6845445294067494</v>
+        <v>0.2539649122807018</v>
       </c>
       <c r="G163">
-        <v>0.4282911681913124</v>
+        <v>0.6363880201078557</v>
       </c>
       <c r="I163">
-        <v>0.999991059874566</v>
+        <v>0.07567479886502092</v>
       </c>
     </row>
     <row r="164">
@@ -5352,26 +6072,31 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Xanthine</t>
+          <t>Indole-3-Acetamide_[M+Na]+</t>
         </is>
       </c>
       <c r="C164">
-        <v>-0.1889366176501226</v>
+        <v>1.817069235197278</v>
       </c>
       <c r="D164">
-        <v>0.511</v>
+        <v>0.0687</v>
       </c>
       <c r="E164">
-        <v>0.8808663728920759</v>
+        <v>0.007703176835327989</v>
       </c>
       <c r="F164">
-        <v>0.7364659263407058</v>
+        <v>0.1096666666666667</v>
       </c>
       <c r="G164">
-        <v>0.2915790998652872</v>
+        <v>1.16304326294045</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I164">
-        <v>0.999991059874566</v>
+        <v>0.009851681939058925</v>
       </c>
     </row>
     <row r="165">
@@ -5382,26 +6107,31 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Caffeate_iso1</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="C165">
-        <v>-0.2006531333835392</v>
+        <v>1.803202041340831</v>
       </c>
       <c r="D165">
-        <v>0.268</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E165">
-        <v>0.7678094527411773</v>
+        <v>0.01198630797521297</v>
       </c>
       <c r="F165">
-        <v>0.6619512366638485</v>
+        <v>0.117431884057971</v>
       </c>
       <c r="G165">
-        <v>0.5718652059712112</v>
+        <v>1.065501548756432</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I165">
-        <v>0.999991059874566</v>
+        <v>0.01472827385189568</v>
       </c>
     </row>
     <row r="166">
@@ -5412,26 +6142,31 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Adipate_iso2</t>
+          <t>3-Hydroxyglutaric Acid_iso1</t>
         </is>
       </c>
       <c r="C166">
-        <v>-0.2045915987889829</v>
+        <v>1.776879374722275</v>
       </c>
       <c r="D166">
-        <v>0.177</v>
+        <v>0.155</v>
       </c>
       <c r="E166">
-        <v>0.7016841203664972</v>
+        <v>0.03641808406851166</v>
       </c>
       <c r="F166">
-        <v>0.6364841812463226</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G166">
-        <v>0.7520267336381934</v>
+        <v>0.8096683018297085</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I166">
-        <v>0.999991059874566</v>
+        <v>0.04099760362203708</v>
       </c>
     </row>
     <row r="167">
@@ -5442,26 +6177,31 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1-Hydroxy-2-Naphthoate</t>
+          <t>Sphinganine</t>
         </is>
       </c>
       <c r="C167">
-        <v>-0.2089878690959863</v>
+        <v>1.7761427669675</v>
       </c>
       <c r="D167">
-        <v>0.592</v>
+        <v>0.133</v>
       </c>
       <c r="E167">
-        <v>0.8962269488018078</v>
+        <v>0.02778660128294938</v>
       </c>
       <c r="F167">
-        <v>0.7713051513623395</v>
+        <v>0.1773333333333333</v>
       </c>
       <c r="G167">
-        <v>0.2276782932770803</v>
+        <v>0.8761483590329142</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I167">
-        <v>0.999991059874566</v>
+        <v>0.03185293317801514</v>
       </c>
     </row>
     <row r="168">
@@ -5472,26 +6212,31 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cystine</t>
+          <t>Adipate_iso1</t>
         </is>
       </c>
       <c r="C168">
-        <v>-0.2093288567427164</v>
+        <v>1.76206929489832</v>
       </c>
       <c r="D168">
-        <v>0.262</v>
+        <v>0.148</v>
       </c>
       <c r="E168">
-        <v>0.7554986181792579</v>
+        <v>0.03450989563483596</v>
       </c>
       <c r="F168">
-        <v>0.6619512366638485</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G168">
-        <v>0.5816987086802545</v>
+        <v>0.8297382846050426</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I168">
-        <v>0.999991059874566</v>
+        <v>0.03908349626113952</v>
       </c>
     </row>
     <row r="169">
@@ -5502,26 +6247,31 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>5-Aminolevulinate</t>
+          <t>2-Hydroxyphenylacetate_iso1</t>
         </is>
       </c>
       <c r="C169">
-        <v>-0.2205781993915125</v>
+        <v>1.755756069606964</v>
       </c>
       <c r="D169">
-        <v>0.106</v>
+        <v>0.145</v>
       </c>
       <c r="E169">
-        <v>0.6095421222554235</v>
+        <v>0.03369510233942573</v>
       </c>
       <c r="F169">
-        <v>0.5169084619603015</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G169">
-        <v>0.9746941347352298</v>
+        <v>0.8386319977650252</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I169">
-        <v>0.999991059874566</v>
+        <v>0.03839199539280023</v>
       </c>
     </row>
     <row r="170">
@@ -5532,26 +6282,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Isoleucine</t>
+          <t>Chenodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C170">
-        <v>-0.2464289544715061</v>
+        <v>1.717003619968304</v>
       </c>
       <c r="D170">
-        <v>0.118</v>
+        <v>0.342</v>
       </c>
       <c r="E170">
-        <v>0.590588319611462</v>
+        <v>0.1584605420837089</v>
       </c>
       <c r="F170">
-        <v>0.5594423343543095</v>
+        <v>0.343</v>
       </c>
       <c r="G170">
-        <v>0.9281179926938746</v>
+        <v>0.465973893943865</v>
       </c>
       <c r="I170">
-        <v>0.999991059874566</v>
+        <v>0.1732010576263796</v>
       </c>
     </row>
     <row r="171">
@@ -5562,26 +6312,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Adipate_iso1</t>
+          <t>Cysteine</t>
         </is>
       </c>
       <c r="C171">
-        <v>-0.2508864299262032</v>
+        <v>1.665222213839366</v>
       </c>
       <c r="D171">
-        <v>0.23</v>
+        <v>0.194</v>
       </c>
       <c r="E171">
-        <v>0.6916178213068854</v>
+        <v>0.06516758394119025</v>
       </c>
       <c r="F171">
-        <v>0.6619512366638485</v>
+        <v>0.2145411764705882</v>
       </c>
       <c r="G171">
-        <v>0.638272163982407</v>
+        <v>0.712198270069774</v>
       </c>
       <c r="I171">
-        <v>0.999991059874566</v>
+        <v>0.07249411704700455</v>
       </c>
     </row>
     <row r="172">
@@ -5592,26 +6342,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso2</t>
+          <t>Phenylalanine</t>
         </is>
       </c>
       <c r="C172">
-        <v>-0.2673835289875996</v>
+        <v>1.653767611466139</v>
       </c>
       <c r="D172">
-        <v>0.659</v>
+        <v>0.343</v>
       </c>
       <c r="E172">
-        <v>0.8944847547142872</v>
+        <v>0.1704058370266915</v>
       </c>
       <c r="F172">
-        <v>0.8270320251882877</v>
+        <v>0.343</v>
       </c>
       <c r="G172">
-        <v>0.1811145854059901</v>
+        <v>0.4647058799572295</v>
       </c>
       <c r="I172">
-        <v>0.999991059874566</v>
+        <v>0.1851809096012602</v>
       </c>
     </row>
     <row r="173">
@@ -5622,26 +6372,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Norleucine</t>
+          <t>O-Acetylcarnitine</t>
         </is>
       </c>
       <c r="C173">
-        <v>-0.2927075145226003</v>
+        <v>1.592606396710277</v>
       </c>
       <c r="D173">
-        <v>0.074</v>
+        <v>0.341</v>
       </c>
       <c r="E173">
-        <v>0.4666761723812504</v>
+        <v>0.180244339659418</v>
       </c>
       <c r="F173">
-        <v>0.4074232855986551</v>
+        <v>0.343</v>
       </c>
       <c r="G173">
-        <v>1.130768280269024</v>
+        <v>0.4672456210075022</v>
       </c>
       <c r="I173">
-        <v>0.999991059874566</v>
+        <v>0.1947467577929344</v>
       </c>
     </row>
     <row r="174">
@@ -5652,26 +6402,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
+          <t>L-Tyrosine</t>
         </is>
       </c>
       <c r="C174">
-        <v>-0.3143522756660591</v>
+        <v>1.526824523989295</v>
       </c>
       <c r="D174">
-        <v>0.514</v>
+        <v>0.339</v>
       </c>
       <c r="E174">
-        <v>0.8112236412794507</v>
+        <v>0.1917332252513101</v>
       </c>
       <c r="F174">
-        <v>0.7364659263407058</v>
+        <v>0.343</v>
       </c>
       <c r="G174">
-        <v>0.2890368810047242</v>
+        <v>0.4698003017969178</v>
       </c>
       <c r="I174">
-        <v>0.999991059874566</v>
+        <v>0.2059762648414074</v>
       </c>
     </row>
     <row r="175">
@@ -5682,26 +6432,31 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cysteate</t>
+          <t>Proline</t>
         </is>
       </c>
       <c r="C175">
-        <v>-0.3256676289111365</v>
+        <v>1.508434339305949</v>
       </c>
       <c r="D175">
-        <v>0.22</v>
+        <v>0.0809</v>
       </c>
       <c r="E175">
-        <v>0.610728734232447</v>
+        <v>0.02252745079208424</v>
       </c>
       <c r="F175">
-        <v>0.6619512366638485</v>
+        <v>0.1126607407407407</v>
       </c>
       <c r="G175">
-        <v>0.6575773191777937</v>
+        <v>1.092051478387728</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I175">
-        <v>0.999991059874566</v>
+        <v>0.02646975468069897</v>
       </c>
     </row>
     <row r="176">
@@ -5712,26 +6467,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Taurohyodeoxycholic Acid</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
         </is>
       </c>
       <c r="C176">
-        <v>-0.3346308790195589</v>
+        <v>1.486754501583396</v>
       </c>
       <c r="D176">
-        <v>0.57</v>
+        <v>0.147</v>
       </c>
       <c r="E176">
-        <v>0.8285299047668935</v>
+        <v>0.05781031010906947</v>
       </c>
       <c r="F176">
-        <v>0.7541556103633182</v>
+        <v>0.190251497005988</v>
       </c>
       <c r="G176">
-        <v>0.2441251443275086</v>
+        <v>0.8326826652518239</v>
       </c>
       <c r="I176">
-        <v>0.999991059874566</v>
+        <v>0.06469248988395868</v>
       </c>
     </row>
     <row r="177">
@@ -5742,26 +6497,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Glycodeoxycholic acid</t>
+          <t>Xanthine</t>
         </is>
       </c>
       <c r="C177">
-        <v>-0.3383924707562519</v>
+        <v>1.465371543130483</v>
       </c>
       <c r="D177">
-        <v>0.576</v>
+        <v>0.328</v>
       </c>
       <c r="E177">
-        <v>0.829714676504939</v>
+        <v>0.1952429258743413</v>
       </c>
       <c r="F177">
-        <v>0.7562318282380026</v>
+        <v>0.3369617486338798</v>
       </c>
       <c r="G177">
-        <v>0.239577516576788</v>
+        <v>0.4841261562883209</v>
       </c>
       <c r="I177">
-        <v>0.999991059874566</v>
+        <v>0.2085549435475919</v>
       </c>
     </row>
     <row r="178">
@@ -5772,26 +6527,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso2</t>
+          <t>Glycocholic Acid_iso1</t>
         </is>
       </c>
       <c r="C178">
-        <v>-0.3546908281916291</v>
+        <v>1.395729609624572</v>
       </c>
       <c r="D178">
-        <v>0.366</v>
+        <v>0.33</v>
       </c>
       <c r="E178">
-        <v>0.7001171958484994</v>
+        <v>0.2128019725344289</v>
       </c>
       <c r="F178">
-        <v>0.6845445294067494</v>
+        <v>0.3371739130434783</v>
       </c>
       <c r="G178">
-        <v>0.4365189146055893</v>
+        <v>0.4814860601221125</v>
       </c>
       <c r="I178">
-        <v>0.999991059874566</v>
+        <v>0.2260269538783764</v>
       </c>
     </row>
     <row r="179">
@@ -5802,26 +6557,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Glycochenodeoxycholate</t>
+          <t>Leucine</t>
         </is>
       </c>
       <c r="C179">
-        <v>-0.3779075606146852</v>
+        <v>1.275922779489565</v>
       </c>
       <c r="D179">
-        <v>0.485</v>
+        <v>0.325</v>
       </c>
       <c r="E179">
-        <v>0.7607455612298526</v>
+        <v>0.2383421547098233</v>
       </c>
       <c r="F179">
-        <v>0.7364659263407058</v>
+        <v>0.3367472527472528</v>
       </c>
       <c r="G179">
-        <v>0.3142582613977364</v>
+        <v>0.4881166390211256</v>
       </c>
       <c r="I179">
-        <v>0.999991059874566</v>
+        <v>0.2517321634013864</v>
       </c>
     </row>
     <row r="180">
@@ -5832,26 +6587,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tauro-?-Muricholic Acid</t>
+          <t>Methionine_iso2</t>
         </is>
       </c>
       <c r="C180">
-        <v>-0.3807049124032461</v>
+        <v>1.217761157348874</v>
       </c>
       <c r="D180">
-        <v>0.477</v>
+        <v>0.326</v>
       </c>
       <c r="E180">
-        <v>0.7544150916846787</v>
+        <v>0.2553967116848495</v>
       </c>
       <c r="F180">
-        <v>0.7364659263407058</v>
+        <v>0.3367472527472528</v>
       </c>
       <c r="G180">
-        <v>0.3214816209598861</v>
+        <v>0.486782399932061</v>
       </c>
       <c r="I180">
-        <v>0.999991059874566</v>
+        <v>0.2639842984080449</v>
       </c>
     </row>
     <row r="181">
@@ -5862,26 +6617,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso3</t>
+          <t>Adipate_iso2</t>
         </is>
       </c>
       <c r="C181">
-        <v>-0.4083967913274757</v>
+        <v>1.192073905175029</v>
       </c>
       <c r="D181">
-        <v>0.518</v>
+        <v>0.311</v>
       </c>
       <c r="E181">
-        <v>0.7644220228488103</v>
+        <v>0.2485037210055406</v>
       </c>
       <c r="F181">
-        <v>0.7364659263407058</v>
+        <v>0.3284719101123595</v>
       </c>
       <c r="G181">
-        <v>0.2856702402547669</v>
+        <v>0.5072396109731625</v>
       </c>
       <c r="I181">
-        <v>0.999991059874566</v>
+        <v>0.259548330828009</v>
       </c>
     </row>
     <row r="182">
@@ -5892,26 +6647,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Glycocholate</t>
+          <t>5-Aminolevulinate</t>
         </is>
       </c>
       <c r="C182">
-        <v>-0.4318473050800302</v>
+        <v>1.176719575097319</v>
       </c>
       <c r="D182">
-        <v>0.48</v>
+        <v>0.321</v>
       </c>
       <c r="E182">
-        <v>0.7283579877249494</v>
+        <v>0.2626000542169438</v>
       </c>
       <c r="F182">
-        <v>0.7364659263407058</v>
+        <v>0.3367472527472528</v>
       </c>
       <c r="G182">
-        <v>0.3187587626244128</v>
+        <v>0.4934949675951279</v>
       </c>
       <c r="I182">
-        <v>0.999991059874566</v>
+        <v>0.2683087510477469</v>
       </c>
     </row>
     <row r="183">
@@ -5922,26 +6677,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Hyodeoxycholic Acid</t>
+          <t>Glycoursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C183">
-        <v>-0.4341613251478374</v>
+        <v>1.1444660673912</v>
       </c>
       <c r="D183">
-        <v>0.484</v>
+        <v>0.31</v>
       </c>
       <c r="E183">
-        <v>0.7297465401208564</v>
+        <v>0.2617464004898734</v>
       </c>
       <c r="F183">
-        <v>0.7364659263407058</v>
+        <v>0.3284719101123595</v>
       </c>
       <c r="G183">
-        <v>0.3151546383555875</v>
+        <v>0.5086383061657274</v>
       </c>
       <c r="I183">
-        <v>0.999991059874566</v>
+        <v>0.2683087510477469</v>
       </c>
     </row>
     <row r="184">
@@ -5952,26 +6707,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>O-Acetylcarnitine</t>
+          <t>Cysteate</t>
         </is>
       </c>
       <c r="C184">
-        <v>-0.4459370351863254</v>
+        <v>1.133165902238676</v>
       </c>
       <c r="D184">
-        <v>0.246</v>
+        <v>0.3</v>
       </c>
       <c r="E184">
-        <v>0.535051280086506</v>
+        <v>0.2555592676077882</v>
       </c>
       <c r="F184">
-        <v>0.6619512366638485</v>
+        <v>0.3204545454545454</v>
       </c>
       <c r="G184">
-        <v>0.6090648928966209</v>
+        <v>0.5228787452803376</v>
       </c>
       <c r="I184">
-        <v>0.999991059874566</v>
+        <v>0.2639842984080449</v>
       </c>
     </row>
     <row r="185">
@@ -5982,26 +6737,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ferulate</t>
+          <t>Isoleucine</t>
         </is>
       </c>
       <c r="C185">
-        <v>-0.4766227261296686</v>
+        <v>1.091699450673911</v>
       </c>
       <c r="D185">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="E185">
-        <v>0.5920877402602662</v>
+        <v>0.2686417828470837</v>
       </c>
       <c r="F185">
-        <v>0.6770200453033508</v>
+        <v>0.3204545454545454</v>
       </c>
       <c r="G185">
-        <v>0.4775557664936801</v>
+        <v>0.5228787452803376</v>
       </c>
       <c r="I185">
-        <v>0.999991059874566</v>
+        <v>0.2729981360824418</v>
       </c>
     </row>
     <row r="186">
@@ -6012,26 +6767,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Homovanillate_iso2</t>
+          <t>Indoleacetaldehyde_iso2</t>
         </is>
       </c>
       <c r="C186">
-        <v>-0.508289538197869</v>
+        <v>1.011124962414567</v>
       </c>
       <c r="D186">
-        <v>0.524</v>
+        <v>0.299</v>
       </c>
       <c r="E186">
-        <v>0.7200108309605746</v>
+        <v>0.2950108915135856</v>
       </c>
       <c r="F186">
-        <v>0.7364659263407058</v>
+        <v>0.3204545454545454</v>
       </c>
       <c r="G186">
-        <v>0.2806687130162733</v>
+        <v>0.5243288116755703</v>
       </c>
       <c r="I186">
-        <v>0.999991059874566</v>
+        <v>0.2965884898639256</v>
       </c>
     </row>
     <row r="187">
@@ -6042,26 +6797,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Deoxyuridine-Monophosphate</t>
+          <t>6-Carboxyhexanoate</t>
         </is>
       </c>
       <c r="C187">
-        <v>-0.5379955364670499</v>
+        <v>0.9217997240992732</v>
       </c>
       <c r="D187">
-        <v>0.335</v>
+        <v>0.256</v>
       </c>
       <c r="E187">
-        <v>0.5552342220553841</v>
+        <v>0.2847841164452059</v>
       </c>
       <c r="F187">
-        <v>0.6770200453033508</v>
+        <v>0.2798139534883721</v>
       </c>
       <c r="G187">
-        <v>0.4749551929631547</v>
+        <v>0.5917600346881504</v>
       </c>
       <c r="I187">
-        <v>0.999991059874566</v>
+        <v>0.287846311245692</v>
       </c>
     </row>
     <row r="188">
@@ -6072,26 +6827,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Indole-3-Acetamide_[M+Na]+</t>
+          <t>Norleucine</t>
         </is>
       </c>
       <c r="C188">
-        <v>-0.7467861237837962</v>
+        <v>0.811731319412981</v>
       </c>
       <c r="D188">
-        <v>0.388</v>
+        <v>0.267</v>
       </c>
       <c r="E188">
-        <v>0.4931116216882194</v>
+        <v>0.342358590352794</v>
       </c>
       <c r="F188">
-        <v>0.6862284094298886</v>
+        <v>0.2901502890173411</v>
       </c>
       <c r="G188">
-        <v>0.4111682744057927</v>
+        <v>0.5734887386354247</v>
       </c>
       <c r="I188">
-        <v>0.999991059874566</v>
+        <v>0.342358590352794</v>
       </c>
     </row>
     <row r="189">
@@ -6102,26 +6857,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
+          <t>Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C189">
-        <v>-0.7572077537434559</v>
+        <v>0.2332144652831881</v>
       </c>
       <c r="D189">
-        <v>0.408</v>
+        <v>0.0023</v>
       </c>
       <c r="E189">
-        <v>0.5072112254410959</v>
+        <v>0.2425028058975144</v>
       </c>
       <c r="F189">
-        <v>0.703397449665819</v>
+        <v>0.02275789473684211</v>
       </c>
       <c r="G189">
-        <v>0.3893398369101201</v>
+        <v>2.638272163982407</v>
       </c>
       <c r="I189">
-        <v>0.999991059874566</v>
+        <v>0.2546956844063279</v>
       </c>
     </row>
   </sheetData>
